--- a/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
+++ b/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\listados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C76A291-A355-407E-8EC1-1C706C6D7CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB4823C-6001-4A2F-BC45-E2558F2174EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="710" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
+    <workbookView xWindow="8070" yWindow="1185" windowWidth="14400" windowHeight="10755" tabRatio="710" firstSheet="4" activeTab="6" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="517">
   <si>
     <t>Codigo</t>
   </si>
@@ -2811,16 +2811,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>26</c:v>
@@ -2838,13 +2838,13 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>29</c:v>
@@ -3003,16 +3003,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8</c:v>
@@ -3030,13 +3030,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4</c:v>
@@ -3478,16 +3478,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.52500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3888888888888889</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45454545454545453</c:v>
+                  <c:v>0.48484848484848486</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.76470588235294112</c:v>
@@ -3505,13 +3505,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34375</c:v>
+                  <c:v>0.59375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.30303030303030304</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0.94117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.87878787878787878</c:v>
@@ -3667,16 +3667,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61111111111111116</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54545454545454541</c:v>
+                  <c:v>0.51515151515151514</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.23529411764705882</c:v>
@@ -3694,13 +3694,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65625</c:v>
+                  <c:v>0.40625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69696969696969702</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.11764705882352941</c:v>
+                  <c:v>5.8823529411764705E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.12121212121212122</c:v>
@@ -5386,8 +5386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C12B159-4222-4E37-8E8B-313A4B20C621}">
   <dimension ref="A3:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="B5" s="10">
         <f>'06-1'!D50</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="10">
         <f>'08-1'!D44</f>
@@ -5540,11 +5540,11 @@
       </c>
       <c r="D5" s="10">
         <f>'08-2'!D46</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="10">
         <f>'08-3'!D44</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="10">
         <f>'08-4'!D44</f>
@@ -5568,15 +5568,15 @@
       </c>
       <c r="K5" s="10">
         <f>'10-2'!D42</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L5" s="10">
         <f>'10-3'!D43</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M5" s="10">
         <f>'11-1'!D44</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N5" s="10">
         <f>'11-2'!D43</f>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="P5" s="33">
         <f t="shared" ref="P5:P8" si="0">AVERAGE(B5:O5)</f>
-        <v>23.214285714285715</v>
+        <v>24.285714285714285</v>
       </c>
       <c r="Q5" s="33">
         <f t="shared" ref="Q5:Q8" si="1">MAX(B5:O5)</f>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="R5" s="33">
         <f t="shared" ref="R5:R8" si="2">MIN(B5:O5)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="B6" s="10">
         <f>'06-1'!D51</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10">
         <f>'08-1'!D45</f>
@@ -5613,11 +5613,11 @@
       </c>
       <c r="D6" s="10">
         <f>'08-2'!D47</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="10">
         <f>'08-3'!D45</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="10">
         <f>'08-4'!D45</f>
@@ -5641,15 +5641,15 @@
       </c>
       <c r="K6" s="10">
         <f>'10-2'!D43</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L6" s="10">
         <f>'10-3'!D44</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="10">
         <f>'11-1'!D45</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" s="10">
         <f>'11-2'!D44</f>
@@ -5661,11 +5661,11 @@
       </c>
       <c r="P6" s="33">
         <f t="shared" si="0"/>
-        <v>10.928571428571429</v>
+        <v>9.8571428571428577</v>
       </c>
       <c r="Q6" s="33">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R6" s="33">
         <f t="shared" si="2"/>
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B7" s="32">
         <f>B5/B4</f>
-        <v>0.5</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C7" s="32">
         <f t="shared" ref="C7:O7" si="3">C5/C4</f>
@@ -5686,11 +5686,11 @@
       </c>
       <c r="D7" s="32">
         <f t="shared" si="3"/>
-        <v>0.3888888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E7" s="32">
         <f t="shared" si="3"/>
-        <v>0.45454545454545453</v>
+        <v>0.48484848484848486</v>
       </c>
       <c r="F7" s="32">
         <f t="shared" si="3"/>
@@ -5714,15 +5714,15 @@
       </c>
       <c r="K7" s="32">
         <f t="shared" si="3"/>
-        <v>0.34375</v>
+        <v>0.59375</v>
       </c>
       <c r="L7" s="32">
         <f t="shared" si="3"/>
-        <v>0.30303030303030304</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M7" s="32">
         <f t="shared" si="3"/>
-        <v>0.88235294117647056</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="N7" s="32">
         <f t="shared" si="3"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0.68271986825033049</v>
+        <v>0.7148616643627147</v>
       </c>
       <c r="Q7" s="34">
         <f t="shared" si="1"/>
@@ -5742,7 +5742,7 @@
       </c>
       <c r="R7" s="34">
         <f t="shared" si="2"/>
-        <v>0.30303030303030304</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="B8" s="36">
         <f>B6/B4</f>
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C8" s="36">
         <f t="shared" ref="C8:O8" si="4">C6/C4</f>
@@ -5759,11 +5759,11 @@
       </c>
       <c r="D8" s="36">
         <f t="shared" si="4"/>
-        <v>0.61111111111111116</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="E8" s="36">
         <f t="shared" si="4"/>
-        <v>0.54545454545454541</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="F8" s="36">
         <f t="shared" si="4"/>
@@ -5787,15 +5787,15 @@
       </c>
       <c r="K8" s="36">
         <f t="shared" si="4"/>
-        <v>0.65625</v>
+        <v>0.40625</v>
       </c>
       <c r="L8" s="36">
         <f t="shared" si="4"/>
-        <v>0.69696969696969702</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M8" s="36">
         <f t="shared" si="4"/>
-        <v>0.11764705882352941</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="N8" s="36">
         <f t="shared" si="4"/>
@@ -5807,11 +5807,11 @@
       </c>
       <c r="P8" s="37">
         <f t="shared" si="0"/>
-        <v>0.31728013174966957</v>
+        <v>0.28513833563728519</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="1"/>
-        <v>0.69696969696969702</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R8" s="37">
         <f t="shared" si="2"/>
@@ -6923,7 +6923,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7108,9 +7108,12 @@
       <c r="C12" s="9" t="s">
         <v>362</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7159,9 +7162,12 @@
       <c r="C15" s="9" t="s">
         <v>365</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -7174,9 +7180,12 @@
       <c r="C16" s="9" t="s">
         <v>366</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -7240,9 +7249,12 @@
       <c r="C20" s="9" t="s">
         <v>370</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -7255,9 +7267,12 @@
       <c r="C21" s="9" t="s">
         <v>371</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -7288,9 +7303,12 @@
       <c r="C23" s="9" t="s">
         <v>373</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -7318,9 +7336,12 @@
       <c r="C25" s="9" t="s">
         <v>375</v>
       </c>
+      <c r="D25" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -7480,9 +7501,12 @@
       <c r="C35" s="9" t="s">
         <v>385</v>
       </c>
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -7508,7 +7532,7 @@
       <c r="C37" s="40"/>
       <c r="D37" s="22">
         <f>COUNTA(D5:D36)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E37" s="22">
         <f t="shared" ref="E37:G37" si="1">COUNTA(#REF!)</f>
@@ -7524,7 +7548,7 @@
       </c>
       <c r="H37" s="23">
         <f>COUNTIF($H$5:$H$36,"X")</f>
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -7558,11 +7582,11 @@
       </c>
       <c r="D42" s="10">
         <f>D41-D43</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E42" s="12">
         <f>D42/D41</f>
-        <v>0.34375</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -7571,11 +7595,11 @@
       </c>
       <c r="D43" s="10">
         <f>H37</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E43" s="12">
         <f>D43/D41</f>
-        <v>0.65625</v>
+        <v>0.40625</v>
       </c>
     </row>
   </sheetData>
@@ -7596,8 +7620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6AB2A-DF13-43E5-8B37-FC6F541704E3}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7947,9 +7971,12 @@
       <c r="C22" s="9" t="s">
         <v>404</v>
       </c>
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -8194,7 +8221,7 @@
       <c r="C38" s="40"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -8210,7 +8237,7 @@
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -8244,11 +8271,11 @@
       </c>
       <c r="D43" s="10">
         <f>D42-D44</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" s="12">
         <f>D43/D42</f>
-        <v>0.30303030303030304</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -8257,11 +8284,11 @@
       </c>
       <c r="D44" s="10">
         <f>H38</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D42</f>
-        <v>0.69696969696969702</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -8282,8 +8309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FF5F04-C5ED-4EA2-B9A1-243676970C03}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8519,9 +8546,12 @@
       <c r="C14" s="9" t="s">
         <v>429</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8924,9 +8954,12 @@
       <c r="C37" s="9" t="s">
         <v>452</v>
       </c>
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -8955,7 +8988,7 @@
       <c r="C39" s="40"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -8971,7 +9004,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF(H5:H38,"X")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -9005,11 +9038,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.88235294117647056</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -9018,11 +9051,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.11764705882352941</v>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9043,8 +9076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A71EA1-F646-4F3E-830E-E1FBC54465F3}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9792,7 +9825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D56A688-FE73-4566-841A-31D529165F68}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -10550,7 +10583,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10707,9 +10740,12 @@
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -11281,7 +11317,7 @@
       <c r="C45" s="40"/>
       <c r="D45" s="22">
         <f>COUNTA(D5:D44)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E45" s="22">
         <f t="shared" ref="E45:G45" si="1">COUNTA(E5:E44)</f>
@@ -11297,7 +11333,7 @@
       </c>
       <c r="H45" s="23">
         <f>COUNTIF(H5:H44,"X")</f>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -11335,11 +11371,11 @@
       </c>
       <c r="D50" s="10">
         <f>D49-D51</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E50" s="12">
         <f>D50/$D$49</f>
-        <v>0.5</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="51" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -11348,11 +11384,11 @@
       </c>
       <c r="D51" s="10">
         <f>H45</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="12">
         <f>D51/$D$49</f>
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -11379,8 +11415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8FFEA4-FAE9-4E98-A7DA-1A249C6193F4}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12140,8 +12176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50465DDD-5234-470A-A297-95DF11514D18}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12218,9 +12254,12 @@
       <c r="C5" s="9" t="s">
         <v>115</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H5" s="4" t="str">
         <f>IF(COUNTA(D5:G5)=0,"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -12689,9 +12728,12 @@
       <c r="C34" s="9" t="s">
         <v>144</v>
       </c>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -12801,7 +12843,7 @@
       <c r="C41" s="40"/>
       <c r="D41" s="22">
         <f>COUNTA(D5:D40)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" s="22">
         <f t="shared" ref="E41:G41" si="1">COUNTA(E5:E40)</f>
@@ -12809,7 +12851,7 @@
       </c>
       <c r="F41" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="22">
         <f t="shared" si="1"/>
@@ -12817,7 +12859,7 @@
       </c>
       <c r="H41" s="23">
         <f>COUNTIF(H5:H40,"X")</f>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -12851,11 +12893,11 @@
       </c>
       <c r="D46" s="10">
         <f>D45-D47</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E46" s="12">
         <f>D46/D45</f>
-        <v>0.3888888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -12864,11 +12906,11 @@
       </c>
       <c r="D47" s="10">
         <f>H41</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E47" s="12">
         <f>D47/D45</f>
-        <v>0.61111111111111116</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
   </sheetData>
@@ -12889,8 +12931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67FE634-56F6-4127-84CF-6C812025014A}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13299,9 +13341,12 @@
       <c r="C25" s="9" t="s">
         <v>172</v>
       </c>
+      <c r="D25" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -13501,7 +13546,7 @@
       <c r="C38" s="40"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -13517,7 +13562,7 @@
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -13562,11 +13607,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.45454545454545453</v>
+        <v>0.48484848484848486</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -13575,11 +13620,11 @@
       </c>
       <c r="D45" s="10">
         <f>H38</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.54545454545454541</v>
+        <v>0.51515151515151514</v>
       </c>
     </row>
   </sheetData>
@@ -13600,8 +13645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CE2C6-5A3B-4910-989B-A6ED716B8D89}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14349,8 +14394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EE12D0-9DBC-4060-A74D-7E7E6A600169}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15100,8 +15145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E1DDBF-2BA4-4D02-93FC-EAD0C83F48A7}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15852,7 +15897,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
+++ b/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\listados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB4823C-6001-4A2F-BC45-E2558F2174EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025DD072-4597-469C-948D-F15E9E05910A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8070" yWindow="1185" windowWidth="14400" windowHeight="10755" tabRatio="710" firstSheet="4" activeTab="6" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
+    <workbookView xWindow="4800" yWindow="1185" windowWidth="14400" windowHeight="10755" tabRatio="710" firstSheet="2" activeTab="3" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="517">
   <si>
     <t>Codigo</t>
   </si>
@@ -2817,13 +2817,13 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>27</c:v>
@@ -2841,7 +2841,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>32</c:v>
@@ -3009,13 +3009,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7</c:v>
@@ -3033,7 +3033,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
@@ -3484,13 +3484,13 @@
                   <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.47222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.48484848484848486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0.79411764705882348</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.79411764705882348</c:v>
@@ -3508,7 +3508,7 @@
                   <c:v>0.59375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.36363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.94117647058823528</c:v>
@@ -3673,13 +3673,13 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.52777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.51515151515151514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23529411764705882</c:v>
+                  <c:v>0.20588235294117646</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.20588235294117646</c:v>
@@ -3697,7 +3697,7 @@
                   <c:v>0.40625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.63636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.8823529411764705E-2</c:v>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="D5" s="10">
         <f>'08-2'!D46</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="10">
         <f>'08-3'!D44</f>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="F5" s="10">
         <f>'08-4'!D44</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="10">
         <f>'09-1'!D44</f>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="L5" s="10">
         <f>'10-3'!D43</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M5" s="10">
         <f>'11-1'!D44</f>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="P5" s="33">
         <f t="shared" ref="P5:P8" si="0">AVERAGE(B5:O5)</f>
-        <v>24.285714285714285</v>
+        <v>24.5</v>
       </c>
       <c r="Q5" s="33">
         <f t="shared" ref="Q5:Q8" si="1">MAX(B5:O5)</f>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="R5" s="33">
         <f t="shared" ref="R5:R8" si="2">MIN(B5:O5)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="D6" s="10">
         <f>'08-2'!D47</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="10">
         <f>'08-3'!D45</f>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="F6" s="10">
         <f>'08-4'!D45</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="10">
         <f>'09-1'!D45</f>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="L6" s="10">
         <f>'10-3'!D44</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" s="10">
         <f>'11-1'!D45</f>
@@ -5661,11 +5661,11 @@
       </c>
       <c r="P6" s="33">
         <f t="shared" si="0"/>
-        <v>9.8571428571428577</v>
+        <v>9.6428571428571423</v>
       </c>
       <c r="Q6" s="33">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R6" s="33">
         <f t="shared" si="2"/>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="D7" s="32">
         <f t="shared" si="3"/>
-        <v>0.44444444444444442</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="E7" s="32">
         <f t="shared" si="3"/>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="F7" s="32">
         <f t="shared" si="3"/>
-        <v>0.76470588235294112</v>
+        <v>0.79411764705882348</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="3"/>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="L7" s="32">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="M7" s="32">
         <f t="shared" si="3"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0.7148616643627147</v>
+        <v>0.72111113384747838</v>
       </c>
       <c r="Q7" s="34">
         <f t="shared" si="1"/>
@@ -5742,7 +5742,7 @@
       </c>
       <c r="R7" s="34">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="D8" s="36">
         <f t="shared" si="4"/>
-        <v>0.55555555555555558</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="E8" s="36">
         <f t="shared" si="4"/>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="F8" s="36">
         <f t="shared" si="4"/>
-        <v>0.23529411764705882</v>
+        <v>0.20588235294117646</v>
       </c>
       <c r="G8" s="36">
         <f t="shared" si="4"/>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="L8" s="36">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="M8" s="36">
         <f t="shared" si="4"/>
@@ -5807,11 +5807,11 @@
       </c>
       <c r="P8" s="37">
         <f t="shared" si="0"/>
-        <v>0.28513833563728519</v>
+        <v>0.27888886615252156</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="R8" s="37">
         <f t="shared" si="2"/>
@@ -7620,8 +7620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6AB2A-DF13-43E5-8B37-FC6F541704E3}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7728,9 +7728,12 @@
       <c r="C7" s="9" t="s">
         <v>389</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8221,7 +8224,7 @@
       <c r="C38" s="40"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -8237,7 +8240,7 @@
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -8271,11 +8274,11 @@
       </c>
       <c r="D43" s="10">
         <f>D42-D44</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E43" s="12">
         <f>D43/D42</f>
-        <v>0.33333333333333331</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -8284,11 +8287,11 @@
       </c>
       <c r="D44" s="10">
         <f>H38</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D42</f>
-        <v>0.66666666666666663</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
   </sheetData>
@@ -10583,7 +10586,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12176,8 +12179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50465DDD-5234-470A-A297-95DF11514D18}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12713,9 +12716,12 @@
       <c r="C33" s="9" t="s">
         <v>143</v>
       </c>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -12843,7 +12849,7 @@
       <c r="C41" s="40"/>
       <c r="D41" s="22">
         <f>COUNTA(D5:D40)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41" s="22">
         <f t="shared" ref="E41:G41" si="1">COUNTA(E5:E40)</f>
@@ -12859,7 +12865,7 @@
       </c>
       <c r="H41" s="23">
         <f>COUNTIF(H5:H40,"X")</f>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -12893,11 +12899,11 @@
       </c>
       <c r="D46" s="10">
         <f>D45-D47</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E46" s="12">
         <f>D46/D45</f>
-        <v>0.44444444444444442</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -12906,11 +12912,11 @@
       </c>
       <c r="D47" s="10">
         <f>H41</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" s="12">
         <f>D47/D45</f>
-        <v>0.55555555555555558</v>
+        <v>0.52777777777777779</v>
       </c>
     </row>
   </sheetData>
@@ -12931,8 +12937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67FE634-56F6-4127-84CF-6C812025014A}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13645,8 +13651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CE2C6-5A3B-4910-989B-A6ED716B8D89}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13792,9 +13798,12 @@
       <c r="C9" s="9" t="s">
         <v>189</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -14306,7 +14315,7 @@
       <c r="C39" s="40"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -14322,7 +14331,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -14356,11 +14365,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.76470588235294112</v>
+        <v>0.79411764705882348</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -14369,11 +14378,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.23529411764705882</v>
+        <v>0.20588235294117646</v>
       </c>
     </row>
   </sheetData>
@@ -14394,7 +14403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EE12D0-9DBC-4060-A74D-7E7E6A600169}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -15896,7 +15905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26084B0-3C12-462B-B273-6776CCBE4AD2}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>

--- a/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
+++ b/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\listados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025DD072-4597-469C-948D-F15E9E05910A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC2511A-C279-4A36-8CAB-D99016C44AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1185" windowWidth="14400" windowHeight="10755" tabRatio="710" firstSheet="2" activeTab="3" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
+    <workbookView xWindow="4800" yWindow="1185" windowWidth="14400" windowHeight="10755" tabRatio="710" firstSheet="2" activeTab="11" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="518">
   <si>
     <t>Codigo</t>
   </si>
@@ -1593,6 +1593,9 @@
   </si>
   <si>
     <t>% NO CONEX 20-24 ABR</t>
+  </si>
+  <si>
+    <t>RETIRADO</t>
   </si>
 </sst>
 </file>
@@ -2841,7 +2844,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>32</c:v>
@@ -3024,7 +3027,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3033,7 +3036,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
@@ -3499,7 +3502,7 @@
                   <c:v>0.79411764705882348</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.58823529411764708</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -3508,7 +3511,7 @@
                   <c:v>0.59375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36363636363636365</c:v>
+                  <c:v>0.45454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.94117647058823528</c:v>
@@ -3688,7 +3691,7 @@
                   <c:v>0.20588235294117646</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.41176470588235292</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3697,7 +3700,7 @@
                   <c:v>0.40625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63636363636363635</c:v>
+                  <c:v>0.54545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.8823529411764705E-2</c:v>
@@ -5486,8 +5489,8 @@
         <v>34</v>
       </c>
       <c r="I4" s="10">
-        <f>'09-3'!D44</f>
-        <v>35</v>
+        <f>'09-3'!D43</f>
+        <v>34</v>
       </c>
       <c r="J4" s="10">
         <f>'10-1'!D42</f>
@@ -5515,7 +5518,7 @@
       </c>
       <c r="P4" s="33">
         <f>AVERAGE(B4:O4)</f>
-        <v>34.142857142857146</v>
+        <v>34.071428571428569</v>
       </c>
       <c r="Q4" s="33">
         <f>MAX(B4:O4)</f>
@@ -5559,7 +5562,7 @@
         <v>27</v>
       </c>
       <c r="I5" s="10">
-        <f>'09-3'!D45</f>
+        <f>'09-3'!D44</f>
         <v>20</v>
       </c>
       <c r="J5" s="10">
@@ -5572,7 +5575,7 @@
       </c>
       <c r="L5" s="10">
         <f>'10-3'!D43</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M5" s="10">
         <f>'11-1'!D44</f>
@@ -5588,7 +5591,7 @@
       </c>
       <c r="P5" s="33">
         <f t="shared" ref="P5:P8" si="0">AVERAGE(B5:O5)</f>
-        <v>24.5</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="Q5" s="33">
         <f t="shared" ref="Q5:Q8" si="1">MAX(B5:O5)</f>
@@ -5596,7 +5599,7 @@
       </c>
       <c r="R5" s="33">
         <f t="shared" ref="R5:R8" si="2">MIN(B5:O5)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5632,8 +5635,8 @@
         <v>7</v>
       </c>
       <c r="I6" s="10">
-        <f>'09-3'!D46</f>
-        <v>15</v>
+        <f>'09-3'!D45</f>
+        <v>14</v>
       </c>
       <c r="J6" s="10">
         <f>'10-1'!D44</f>
@@ -5645,7 +5648,7 @@
       </c>
       <c r="L6" s="10">
         <f>'10-3'!D44</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M6" s="10">
         <f>'11-1'!D45</f>
@@ -5661,11 +5664,11 @@
       </c>
       <c r="P6" s="33">
         <f t="shared" si="0"/>
-        <v>9.6428571428571423</v>
+        <v>9.3571428571428577</v>
       </c>
       <c r="Q6" s="33">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R6" s="33">
         <f t="shared" si="2"/>
@@ -5706,7 +5709,7 @@
       </c>
       <c r="I7" s="32">
         <f t="shared" si="3"/>
-        <v>0.5714285714285714</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="J7" s="32">
         <f t="shared" si="3"/>
@@ -5718,7 +5721,7 @@
       </c>
       <c r="L7" s="32">
         <f t="shared" si="3"/>
-        <v>0.36363636363636365</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="M7" s="32">
         <f t="shared" si="3"/>
@@ -5734,7 +5737,7 @@
       </c>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0.72111113384747838</v>
+        <v>0.72880512053306157</v>
       </c>
       <c r="Q7" s="34">
         <f t="shared" si="1"/>
@@ -5742,7 +5745,7 @@
       </c>
       <c r="R7" s="34">
         <f t="shared" si="2"/>
-        <v>0.36363636363636365</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5779,7 +5782,7 @@
       </c>
       <c r="I8" s="36">
         <f t="shared" si="4"/>
-        <v>0.42857142857142855</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="J8" s="36">
         <f t="shared" si="4"/>
@@ -5791,7 +5794,7 @@
       </c>
       <c r="L8" s="36">
         <f t="shared" si="4"/>
-        <v>0.63636363636363635</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="M8" s="36">
         <f t="shared" si="4"/>
@@ -5807,11 +5810,11 @@
       </c>
       <c r="P8" s="37">
         <f t="shared" si="0"/>
-        <v>0.27888886615252156</v>
+        <v>0.27119487946693827</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="1"/>
-        <v>0.63636363636363635</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="R8" s="37">
         <f t="shared" si="2"/>
@@ -7620,8 +7623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6AB2A-DF13-43E5-8B37-FC6F541704E3}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7713,9 +7716,12 @@
       <c r="C6" s="9" t="s">
         <v>388</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="4" t="str">
         <f t="shared" ref="H6:H37" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8085,9 +8091,12 @@
       <c r="C29" s="9" t="s">
         <v>411</v>
       </c>
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -8133,9 +8142,12 @@
       <c r="C32" s="9" t="s">
         <v>414</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -8224,7 +8236,7 @@
       <c r="C38" s="40"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -8240,7 +8252,7 @@
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -8274,11 +8286,11 @@
       </c>
       <c r="D43" s="10">
         <f>D42-D44</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E43" s="12">
         <f>D43/D42</f>
-        <v>0.36363636363636365</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -8287,11 +8299,11 @@
       </c>
       <c r="D44" s="10">
         <f>H38</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D42</f>
-        <v>0.63636363636363635</v>
+        <v>0.54545454545454541</v>
       </c>
     </row>
   </sheetData>
@@ -11418,8 +11430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8FFEA4-FAE9-4E98-A7DA-1A249C6193F4}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12179,8 +12191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50465DDD-5234-470A-A297-95DF11514D18}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13651,8 +13663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CE2C6-5A3B-4910-989B-A6ED716B8D89}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15903,10 +15915,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26084B0-3C12-462B-B273-6776CCBE4AD2}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15999,7 +16011,7 @@
         <v>288</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f t="shared" ref="H6:H39" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
+        <f t="shared" ref="H6:H38" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
         <v>X</v>
       </c>
     </row>
@@ -16167,28 +16179,31 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
-        <v>4353</v>
+        <v>4067</v>
       </c>
       <c r="B17" s="26">
         <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
-        <v>4067</v>
+        <v>1403</v>
       </c>
       <c r="B18" s="26">
         <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>43</v>
@@ -16200,13 +16215,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
-        <v>1403</v>
+        <v>1719</v>
       </c>
       <c r="B19" s="26">
         <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>43</v>
@@ -16218,13 +16233,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
-        <v>1719</v>
+        <v>1667</v>
       </c>
       <c r="B20" s="26">
         <v>16</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>43</v>
@@ -16236,13 +16251,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
-        <v>1667</v>
+        <v>1799</v>
       </c>
       <c r="B21" s="26">
         <v>17</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>43</v>
@@ -16254,13 +16269,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
-        <v>1799</v>
+        <v>1672</v>
       </c>
       <c r="B22" s="26">
         <v>18</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>43</v>
@@ -16272,13 +16287,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
-        <v>1672</v>
+        <v>3595</v>
       </c>
       <c r="B23" s="26">
         <v>19</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>43</v>
@@ -16290,13 +16305,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
-        <v>3595</v>
+        <v>4296</v>
       </c>
       <c r="B24" s="26">
         <v>20</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>43</v>
@@ -16308,13 +16323,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
-        <v>4296</v>
+        <v>1645</v>
       </c>
       <c r="B25" s="26">
         <v>21</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>43</v>
@@ -16326,13 +16341,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B26" s="26">
         <v>22</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>43</v>
@@ -16344,46 +16359,46 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
-        <v>1646</v>
+        <v>1701</v>
       </c>
       <c r="B27" s="26">
         <v>23</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
-        <v>1701</v>
+        <v>3245</v>
       </c>
       <c r="B28" s="26">
         <v>24</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
-        <v>3245</v>
+        <v>1977</v>
       </c>
       <c r="B29" s="26">
         <v>25</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>43</v>
@@ -16395,13 +16410,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
-        <v>1977</v>
+        <v>3596</v>
       </c>
       <c r="B30" s="26">
         <v>26</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>43</v>
@@ -16413,97 +16428,94 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
-        <v>3596</v>
+        <v>1649</v>
       </c>
       <c r="B31" s="26">
         <v>27</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
-        <v>1649</v>
+        <v>2491</v>
       </c>
       <c r="B32" s="26">
         <v>28</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
-        <v>2491</v>
+        <v>865</v>
       </c>
       <c r="B33" s="26">
         <v>29</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
-        <v>865</v>
+        <v>1929</v>
       </c>
       <c r="B34" s="26">
         <v>30</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
-        <v>1929</v>
+        <v>2334</v>
       </c>
       <c r="B35" s="26">
         <v>31</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
-        <v>2334</v>
+        <v>3597</v>
       </c>
       <c r="B36" s="26">
         <v>32</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16512,13 +16524,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
-        <v>3597</v>
+        <v>1706</v>
       </c>
       <c r="B37" s="26">
         <v>33</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16527,118 +16539,115 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
-        <v>1706</v>
+        <v>1968</v>
       </c>
       <c r="B38" s="26">
         <v>34</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="26">
-        <v>1968</v>
-      </c>
-      <c r="B39" s="26">
-        <v>35</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="H39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="39" t="s">
+    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="22">
-        <f>COUNTA(D5:D39)</f>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="22">
+        <f>COUNTA(D5:D38)</f>
         <v>20</v>
       </c>
-      <c r="E40" s="22">
-        <f t="shared" ref="E40:G40" si="1">COUNTA(E5:E39)</f>
+      <c r="E39" s="22">
+        <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F39" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G39" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="23">
-        <f>COUNTIF($H$5:$H$39,"X")</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H39" s="23">
+        <f>COUNTIF($H$5:$H$38,"X")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C42" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>494</v>
+      </c>
+    </row>
     <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C43" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>494</v>
+      <c r="C43" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D43" s="10">
+        <f>COUNTA(B5:B38)</f>
+        <v>34</v>
+      </c>
+      <c r="E43" s="20">
+        <f>E44+E45</f>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C44" s="19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D44" s="10">
-        <f>COUNTA(B5:B39)</f>
-        <v>35</v>
-      </c>
-      <c r="E44" s="20">
-        <f>E45+E46</f>
-        <v>1</v>
+        <f>D43-D45</f>
+        <v>20</v>
+      </c>
+      <c r="E44" s="12">
+        <f>D44/D43</f>
+        <v>0.58823529411764708</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D45" s="10">
-        <f>D44-D46</f>
-        <v>20</v>
+        <f>H39</f>
+        <v>14</v>
       </c>
       <c r="E45" s="12">
-        <f>D45/D44</f>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C46" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="D46" s="10">
-        <f>H40</f>
-        <v>15</v>
-      </c>
-      <c r="E46" s="12">
-        <f>D46/D44</f>
-        <v>0.42857142857142855</v>
+        <f>D45/D43</f>
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H49" s="4" t="str">
+        <f>IF(COUNTA(D49:G49)=0,"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="A1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:C39">
+  <conditionalFormatting sqref="C5:C38 C49">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>IF(LEN($H5)&gt;0, TRUE, FALSE)</formula>
     </cfRule>

--- a/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
+++ b/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\listados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC2511A-C279-4A36-8CAB-D99016C44AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BD29F5-495F-4F6F-883C-793DDEC1C5F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1185" windowWidth="14400" windowHeight="10755" tabRatio="710" firstSheet="2" activeTab="11" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
+    <workbookView xWindow="3345" yWindow="2865" windowWidth="14400" windowHeight="10755" tabRatio="710" firstSheet="2" activeTab="11" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="518">
   <si>
     <t>Codigo</t>
   </si>
@@ -2823,7 +2823,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>27</c:v>
@@ -2844,7 +2844,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>32</c:v>
@@ -3015,7 +3015,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7</c:v>
@@ -3036,7 +3036,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
@@ -3490,7 +3490,7 @@
                   <c:v>0.47222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48484848484848486</c:v>
+                  <c:v>0.51515151515151514</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.79411764705882348</c:v>
@@ -3511,7 +3511,7 @@
                   <c:v>0.59375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45454545454545453</c:v>
+                  <c:v>0.48484848484848486</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.94117647058823528</c:v>
@@ -3679,7 +3679,7 @@
                   <c:v>0.52777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51515151515151514</c:v>
+                  <c:v>0.48484848484848486</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.20588235294117646</c:v>
@@ -3700,7 +3700,7 @@
                   <c:v>0.40625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54545454545454541</c:v>
+                  <c:v>0.51515151515151514</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.8823529411764705E-2</c:v>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="E5" s="10">
         <f>'08-3'!D44</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="10">
         <f>'08-4'!D44</f>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="L5" s="10">
         <f>'10-3'!D43</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M5" s="10">
         <f>'11-1'!D44</f>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="P5" s="33">
         <f t="shared" ref="P5:P8" si="0">AVERAGE(B5:O5)</f>
-        <v>24.714285714285715</v>
+        <v>24.857142857142858</v>
       </c>
       <c r="Q5" s="33">
         <f t="shared" ref="Q5:Q8" si="1">MAX(B5:O5)</f>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="R5" s="33">
         <f t="shared" ref="R5:R8" si="2">MIN(B5:O5)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="E6" s="10">
         <f>'08-3'!D45</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="10">
         <f>'08-4'!D45</f>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="L6" s="10">
         <f>'10-3'!D44</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" s="10">
         <f>'11-1'!D45</f>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="P6" s="33">
         <f t="shared" si="0"/>
-        <v>9.3571428571428577</v>
+        <v>9.2142857142857135</v>
       </c>
       <c r="Q6" s="33">
         <f t="shared" si="1"/>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="E7" s="32">
         <f t="shared" si="3"/>
-        <v>0.48484848484848486</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="F7" s="32">
         <f t="shared" si="3"/>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="L7" s="32">
         <f t="shared" si="3"/>
-        <v>0.45454545454545453</v>
+        <v>0.48484848484848486</v>
       </c>
       <c r="M7" s="32">
         <f t="shared" si="3"/>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0.72880512053306157</v>
+        <v>0.73313412486206608</v>
       </c>
       <c r="Q7" s="34">
         <f t="shared" si="1"/>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="R7" s="34">
         <f t="shared" si="2"/>
-        <v>0.45454545454545453</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="E8" s="36">
         <f t="shared" si="4"/>
-        <v>0.51515151515151514</v>
+        <v>0.48484848484848486</v>
       </c>
       <c r="F8" s="36">
         <f t="shared" si="4"/>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="L8" s="36">
         <f t="shared" si="4"/>
-        <v>0.54545454545454541</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="M8" s="36">
         <f t="shared" si="4"/>
@@ -5810,11 +5810,11 @@
       </c>
       <c r="P8" s="37">
         <f t="shared" si="0"/>
-        <v>0.27119487946693827</v>
+        <v>0.26686587513793392</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="1"/>
-        <v>0.54545454545454541</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="R8" s="37">
         <f t="shared" si="2"/>
@@ -7623,8 +7623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6AB2A-DF13-43E5-8B37-FC6F541704E3}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7881,9 +7881,12 @@
       <c r="C16" s="9" t="s">
         <v>398</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8236,7 +8239,7 @@
       <c r="C38" s="40"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -8252,7 +8255,7 @@
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -8286,11 +8289,11 @@
       </c>
       <c r="D43" s="10">
         <f>D42-D44</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" s="12">
         <f>D43/D42</f>
-        <v>0.45454545454545453</v>
+        <v>0.48484848484848486</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -8299,11 +8302,11 @@
       </c>
       <c r="D44" s="10">
         <f>H38</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D42</f>
-        <v>0.54545454545454541</v>
+        <v>0.51515151515151514</v>
       </c>
     </row>
   </sheetData>
@@ -12950,7 +12953,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13326,9 +13329,12 @@
       <c r="C23" s="9" t="s">
         <v>169</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -13564,7 +13570,7 @@
       <c r="C38" s="40"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -13580,7 +13586,7 @@
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -13625,11 +13631,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.48484848484848486</v>
+        <v>0.51515151515151514</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -13638,11 +13644,11 @@
       </c>
       <c r="D45" s="10">
         <f>H38</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.51515151515151514</v>
+        <v>0.48484848484848486</v>
       </c>
     </row>
   </sheetData>

--- a/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
+++ b/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\listados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BD29F5-495F-4F6F-883C-793DDEC1C5F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683AD57B-BD14-4F61-94D5-22C963DC8E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="2865" windowWidth="14400" windowHeight="10755" tabRatio="710" firstSheet="2" activeTab="11" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
+    <workbookView xWindow="3345" yWindow="2865" windowWidth="14400" windowHeight="10755" tabRatio="710" activeTab="1" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="518">
   <si>
     <t>Codigo</t>
   </si>
@@ -2814,7 +2814,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
@@ -2829,7 +2829,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>27</c:v>
@@ -3006,7 +3006,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -3021,7 +3021,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
@@ -3481,7 +3481,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.52500000000000002</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88235294117647056</c:v>
@@ -3496,7 +3496,7 @@
                   <c:v>0.79411764705882348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79411764705882348</c:v>
+                  <c:v>0.82352941176470584</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.79411764705882348</c:v>
@@ -3670,7 +3670,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.11764705882352941</c:v>
@@ -3685,7 +3685,7 @@
                   <c:v>0.20588235294117646</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20588235294117646</c:v>
+                  <c:v>0.17647058823529413</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.20588235294117646</c:v>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="B5" s="10">
         <f>'06-1'!D50</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="10">
         <f>'08-1'!D44</f>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="G5" s="10">
         <f>'09-1'!D44</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="10">
         <f>'09-2'!D44</f>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="P5" s="33">
         <f t="shared" ref="P5:P8" si="0">AVERAGE(B5:O5)</f>
-        <v>24.857142857142858</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="33">
         <f t="shared" ref="Q5:Q8" si="1">MAX(B5:O5)</f>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B6" s="10">
         <f>'06-1'!D51</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10">
         <f>'08-1'!D45</f>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="G6" s="10">
         <f>'09-1'!D45</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="10">
         <f>'09-2'!D45</f>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="P6" s="33">
         <f t="shared" si="0"/>
-        <v>9.2142857142857135</v>
+        <v>9.0714285714285712</v>
       </c>
       <c r="Q6" s="33">
         <f t="shared" si="1"/>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B7" s="32">
         <f>B5/B4</f>
-        <v>0.52500000000000002</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C7" s="32">
         <f t="shared" ref="C7:O7" si="3">C5/C4</f>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="G7" s="32">
         <f t="shared" si="3"/>
-        <v>0.79411764705882348</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="H7" s="32">
         <f t="shared" si="3"/>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0.73313412486206608</v>
+        <v>0.7370206794839147</v>
       </c>
       <c r="Q7" s="34">
         <f t="shared" si="1"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B8" s="36">
         <f>B6/B4</f>
-        <v>0.47499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="C8" s="36">
         <f t="shared" ref="C8:O8" si="4">C6/C4</f>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="G8" s="36">
         <f t="shared" si="4"/>
-        <v>0.20588235294117646</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="H8" s="36">
         <f t="shared" si="4"/>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="P8" s="37">
         <f t="shared" si="0"/>
-        <v>0.26686587513793392</v>
+        <v>0.26297932051608519</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="1"/>
@@ -6167,7 +6167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE5E425-7606-4CA0-91F7-19ECFA2BFA71}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -7623,8 +7623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6AB2A-DF13-43E5-8B37-FC6F541704E3}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8327,7 +8327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FF5F04-C5ED-4EA2-B9A1-243676970C03}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -9094,7 +9094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A71EA1-F646-4F3E-830E-E1FBC54465F3}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -9844,7 +9844,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10600,8 +10600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10776,9 +10776,12 @@
       <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -11335,7 +11338,7 @@
       <c r="C45" s="40"/>
       <c r="D45" s="22">
         <f>COUNTA(D5:D44)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E45" s="22">
         <f t="shared" ref="E45:G45" si="1">COUNTA(E5:E44)</f>
@@ -11351,7 +11354,7 @@
       </c>
       <c r="H45" s="23">
         <f>COUNTIF(H5:H44,"X")</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -11389,11 +11392,11 @@
       </c>
       <c r="D50" s="10">
         <f>D49-D51</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E50" s="12">
         <f>D50/$D$49</f>
-        <v>0.52500000000000002</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="51" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -11402,11 +11405,11 @@
       </c>
       <c r="D51" s="10">
         <f>H45</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" s="12">
         <f>D51/$D$49</f>
-        <v>0.47499999999999998</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -12953,7 +12956,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14422,7 +14425,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14966,9 +14969,12 @@
       <c r="C32" s="9" t="s">
         <v>246</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -15084,7 +15090,7 @@
       <c r="C39" s="40"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -15100,7 +15106,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -15134,11 +15140,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.79411764705882348</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -15147,11 +15153,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.20588235294117646</v>
+        <v>0.17647058823529413</v>
       </c>
     </row>
   </sheetData>

--- a/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
+++ b/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\listados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683AD57B-BD14-4F61-94D5-22C963DC8E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9BB3B2-EB12-46B6-A0EA-D98A6255B7EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="2865" windowWidth="14400" windowHeight="10755" tabRatio="710" activeTab="1" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
+    <workbookView xWindow="3345" yWindow="2865" windowWidth="14400" windowHeight="10755" tabRatio="710" firstSheet="5" activeTab="12" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="518">
   <si>
     <t>Codigo</t>
   </si>
@@ -2814,7 +2814,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
@@ -2823,7 +2823,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>27</c:v>
@@ -3006,7 +3006,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -3015,7 +3015,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7</c:v>
@@ -3481,7 +3481,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.57499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88235294117647056</c:v>
@@ -3490,7 +3490,7 @@
                   <c:v>0.47222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51515151515151514</c:v>
+                  <c:v>0.54545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.79411764705882348</c:v>
@@ -3670,7 +3670,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.11764705882352941</c:v>
@@ -3679,7 +3679,7 @@
                   <c:v>0.52777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48484848484848486</c:v>
+                  <c:v>0.45454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.20588235294117646</c:v>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="B5" s="10">
         <f>'06-1'!D50</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="10">
         <f>'08-1'!D44</f>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="E5" s="10">
         <f>'08-3'!D44</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="10">
         <f>'08-4'!D44</f>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="P5" s="33">
         <f t="shared" ref="P5:P8" si="0">AVERAGE(B5:O5)</f>
-        <v>25</v>
+        <v>25.142857142857142</v>
       </c>
       <c r="Q5" s="33">
         <f t="shared" ref="Q5:Q8" si="1">MAX(B5:O5)</f>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B6" s="10">
         <f>'06-1'!D51</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="10">
         <f>'08-1'!D45</f>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="E6" s="10">
         <f>'08-3'!D45</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="10">
         <f>'08-4'!D45</f>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="P6" s="33">
         <f t="shared" si="0"/>
-        <v>9.0714285714285712</v>
+        <v>8.9285714285714288</v>
       </c>
       <c r="Q6" s="33">
         <f t="shared" si="1"/>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B7" s="32">
         <f>B5/B4</f>
-        <v>0.55000000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="C7" s="32">
         <f t="shared" ref="C7:O7" si="3">C5/C4</f>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="E7" s="32">
         <f t="shared" si="3"/>
-        <v>0.51515151515151514</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="F7" s="32">
         <f t="shared" si="3"/>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0.7370206794839147</v>
+        <v>0.74097089593413124</v>
       </c>
       <c r="Q7" s="34">
         <f t="shared" si="1"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B8" s="36">
         <f>B6/B4</f>
-        <v>0.45</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C8" s="36">
         <f t="shared" ref="C8:O8" si="4">C6/C4</f>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="E8" s="36">
         <f t="shared" si="4"/>
-        <v>0.48484848484848486</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="F8" s="36">
         <f t="shared" si="4"/>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="P8" s="37">
         <f t="shared" si="0"/>
-        <v>0.26297932051608519</v>
+        <v>0.25902910406586871</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="1"/>
@@ -8327,8 +8327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FF5F04-C5ED-4EA2-B9A1-243676970C03}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10600,8 +10600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11310,9 +11310,12 @@
       <c r="C43" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="D43" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -11338,7 +11341,7 @@
       <c r="C45" s="40"/>
       <c r="D45" s="22">
         <f>COUNTA(D5:D44)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E45" s="22">
         <f t="shared" ref="E45:G45" si="1">COUNTA(E5:E44)</f>
@@ -11354,7 +11357,7 @@
       </c>
       <c r="H45" s="23">
         <f>COUNTIF(H5:H44,"X")</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -11392,11 +11395,11 @@
       </c>
       <c r="D50" s="10">
         <f>D49-D51</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E50" s="12">
         <f>D50/$D$49</f>
-        <v>0.55000000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="51" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -11405,11 +11408,11 @@
       </c>
       <c r="D51" s="10">
         <f>H45</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" s="12">
         <f>D51/$D$49</f>
-        <v>0.45</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12955,8 +12958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67FE634-56F6-4127-84CF-6C812025014A}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13029,9 +13032,12 @@
       <c r="C5" s="9" t="s">
         <v>151</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H5" s="4" t="str">
         <f>IF(COUNTA(D5:G5)=0,"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -13573,7 +13579,7 @@
       <c r="C38" s="40"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -13589,7 +13595,7 @@
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -13634,11 +13640,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.51515151515151514</v>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -13647,11 +13653,11 @@
       </c>
       <c r="D45" s="10">
         <f>H38</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.48484848484848486</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
   </sheetData>

--- a/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
+++ b/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\listados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9BB3B2-EB12-46B6-A0EA-D98A6255B7EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F39970-0AA1-45EB-BA37-FF217A6A4BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="2865" windowWidth="14400" windowHeight="10755" tabRatio="710" firstSheet="5" activeTab="12" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
+    <workbookView xWindow="2070" yWindow="1710" windowWidth="14400" windowHeight="10755" tabRatio="710" activeTab="6" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="518">
   <si>
     <t>Codigo</t>
   </si>
@@ -2814,22 +2814,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>27</c:v>
@@ -2841,7 +2841,7 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>16</c:v>
@@ -3006,22 +3006,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
@@ -3033,7 +3033,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>17</c:v>
@@ -3481,22 +3481,22 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.57499999999999996</c:v>
+                  <c:v>0.97499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47222222222222221</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.54545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79411764705882348</c:v>
+                  <c:v>0.82352941176470584</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0.94117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.79411764705882348</c:v>
@@ -3508,7 +3508,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59375</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.48484848484848486</c:v>
@@ -3670,22 +3670,22 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.42499999999999999</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52777777777777779</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.45454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20588235294117646</c:v>
+                  <c:v>0.17647058823529413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17647058823529413</c:v>
+                  <c:v>5.8823529411764705E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.20588235294117646</c:v>
@@ -3697,7 +3697,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40625</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.51515151515151514</c:v>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="B5" s="10">
         <f>'06-1'!D50</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C5" s="10">
         <f>'08-1'!D44</f>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="D5" s="10">
         <f>'08-2'!D46</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="10">
         <f>'08-3'!D44</f>
@@ -5551,11 +5551,11 @@
       </c>
       <c r="F5" s="10">
         <f>'08-4'!D44</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="10">
         <f>'09-1'!D44</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H5" s="10">
         <f>'09-2'!D44</f>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="K5" s="10">
         <f>'10-2'!D42</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5" s="10">
         <f>'10-3'!D43</f>
@@ -5591,11 +5591,11 @@
       </c>
       <c r="P5" s="33">
         <f t="shared" ref="P5:P8" si="0">AVERAGE(B5:O5)</f>
-        <v>25.142857142857142</v>
+        <v>26.785714285714285</v>
       </c>
       <c r="Q5" s="33">
         <f t="shared" ref="Q5:Q8" si="1">MAX(B5:O5)</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R5" s="33">
         <f t="shared" ref="R5:R8" si="2">MIN(B5:O5)</f>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B6" s="10">
         <f>'06-1'!D51</f>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C6" s="10">
         <f>'08-1'!D45</f>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="D6" s="10">
         <f>'08-2'!D47</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="10">
         <f>'08-3'!D45</f>
@@ -5624,11 +5624,11 @@
       </c>
       <c r="F6" s="10">
         <f>'08-4'!D45</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="10">
         <f>'09-1'!D45</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H6" s="10">
         <f>'09-2'!D45</f>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="K6" s="10">
         <f>'10-2'!D43</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" s="10">
         <f>'10-3'!D44</f>
@@ -5664,11 +5664,11 @@
       </c>
       <c r="P6" s="33">
         <f t="shared" si="0"/>
-        <v>8.9285714285714288</v>
+        <v>7.2857142857142856</v>
       </c>
       <c r="Q6" s="33">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="33">
         <f t="shared" si="2"/>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B7" s="32">
         <f>B5/B4</f>
-        <v>0.57499999999999996</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="C7" s="32">
         <f t="shared" ref="C7:O7" si="3">C5/C4</f>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="D7" s="32">
         <f t="shared" si="3"/>
-        <v>0.47222222222222221</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="32">
         <f t="shared" si="3"/>
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F7" s="32">
         <f t="shared" si="3"/>
-        <v>0.79411764705882348</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="3"/>
-        <v>0.82352941176470584</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="H7" s="32">
         <f t="shared" si="3"/>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="K7" s="32">
         <f t="shared" si="3"/>
-        <v>0.59375</v>
+        <v>0.625</v>
       </c>
       <c r="L7" s="32">
         <f t="shared" si="3"/>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0.74097089593413124</v>
+        <v>0.78426279602750193</v>
       </c>
       <c r="Q7" s="34">
         <f t="shared" si="1"/>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="R7" s="34">
         <f t="shared" si="2"/>
-        <v>0.47222222222222221</v>
+        <v>0.48484848484848486</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B8" s="36">
         <f>B6/B4</f>
-        <v>0.42499999999999999</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C8" s="36">
         <f t="shared" ref="C8:O8" si="4">C6/C4</f>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="D8" s="36">
         <f t="shared" si="4"/>
-        <v>0.52777777777777779</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="36">
         <f t="shared" si="4"/>
@@ -5770,11 +5770,11 @@
       </c>
       <c r="F8" s="36">
         <f t="shared" si="4"/>
-        <v>0.20588235294117646</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="G8" s="36">
         <f t="shared" si="4"/>
-        <v>0.17647058823529413</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="H8" s="36">
         <f t="shared" si="4"/>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="K8" s="36">
         <f t="shared" si="4"/>
-        <v>0.40625</v>
+        <v>0.375</v>
       </c>
       <c r="L8" s="36">
         <f t="shared" si="4"/>
@@ -5810,11 +5810,11 @@
       </c>
       <c r="P8" s="37">
         <f t="shared" si="0"/>
-        <v>0.25902910406586871</v>
+        <v>0.21573720397249807</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="1"/>
-        <v>0.52777777777777779</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="R8" s="37">
         <f t="shared" si="2"/>
@@ -6926,7 +6926,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7048,9 +7048,12 @@
       <c r="C8" s="9" t="s">
         <v>358</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7535,7 +7538,7 @@
       <c r="C37" s="40"/>
       <c r="D37" s="22">
         <f>COUNTA(D5:D36)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E37" s="22">
         <f t="shared" ref="E37:G37" si="1">COUNTA(#REF!)</f>
@@ -7551,7 +7554,7 @@
       </c>
       <c r="H37" s="23">
         <f>COUNTIF($H$5:$H$36,"X")</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -7585,11 +7588,11 @@
       </c>
       <c r="D42" s="10">
         <f>D41-D43</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E42" s="12">
         <f>D42/D41</f>
-        <v>0.59375</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -7598,11 +7601,11 @@
       </c>
       <c r="D43" s="10">
         <f>H37</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="12">
         <f>D43/D41</f>
-        <v>0.40625</v>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
@@ -8327,8 +8330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FF5F04-C5ED-4EA2-B9A1-243676970C03}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9094,8 +9097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A71EA1-F646-4F3E-830E-E1FBC54465F3}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9843,7 +9846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D56A688-FE73-4566-841A-31D529165F68}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -10600,8 +10603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:E45"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10710,9 +10713,12 @@
       <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -10725,9 +10731,12 @@
       <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10848,9 +10857,12 @@
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -10863,9 +10875,12 @@
       <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -10878,9 +10893,12 @@
       <c r="C17" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -10893,9 +10911,12 @@
       <c r="C18" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -10908,9 +10929,12 @@
       <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -10959,9 +10983,12 @@
       <c r="C22" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -10992,9 +11019,12 @@
       <c r="C24" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -11043,9 +11073,12 @@
       <c r="C27" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -11076,9 +11109,12 @@
       <c r="C29" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -11235,9 +11271,12 @@
       <c r="C38" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -11250,9 +11289,12 @@
       <c r="C39" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="D39" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -11265,9 +11307,12 @@
       <c r="C40" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -11295,9 +11340,12 @@
       <c r="C42" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="D42" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -11328,9 +11376,12 @@
       <c r="C44" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="D44" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11341,7 +11392,7 @@
       <c r="C45" s="40"/>
       <c r="D45" s="22">
         <f>COUNTA(D5:D44)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E45" s="22">
         <f t="shared" ref="E45:G45" si="1">COUNTA(E5:E44)</f>
@@ -11357,7 +11408,7 @@
       </c>
       <c r="H45" s="23">
         <f>COUNTIF(H5:H44,"X")</f>
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -11395,11 +11446,11 @@
       </c>
       <c r="D50" s="10">
         <f>D49-D51</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E50" s="12">
         <f>D50/$D$49</f>
-        <v>0.57499999999999996</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="51" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -11408,11 +11459,11 @@
       </c>
       <c r="D51" s="10">
         <f>H45</f>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E51" s="12">
         <f>D51/$D$49</f>
-        <v>0.42499999999999999</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11439,8 +11490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8FFEA4-FAE9-4E98-A7DA-1A249C6193F4}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12200,8 +12251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50465DDD-5234-470A-A297-95DF11514D18}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12593,9 +12644,12 @@
       <c r="C24" s="9" t="s">
         <v>134</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -12870,7 +12924,7 @@
       <c r="C41" s="40"/>
       <c r="D41" s="22">
         <f>COUNTA(D5:D40)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E41" s="22">
         <f t="shared" ref="E41:G41" si="1">COUNTA(E5:E40)</f>
@@ -12886,7 +12940,7 @@
       </c>
       <c r="H41" s="23">
         <f>COUNTIF(H5:H40,"X")</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -12920,11 +12974,11 @@
       </c>
       <c r="D46" s="10">
         <f>D45-D47</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46" s="12">
         <f>D46/D45</f>
-        <v>0.47222222222222221</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -12933,11 +12987,11 @@
       </c>
       <c r="D47" s="10">
         <f>H41</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47" s="12">
         <f>D47/D45</f>
-        <v>0.52777777777777779</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -13678,8 +13732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CE2C6-5A3B-4910-989B-A6ED716B8D89}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13963,9 +14017,12 @@
       <c r="C17" s="9" t="s">
         <v>197</v>
       </c>
+      <c r="F17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -14350,7 +14407,7 @@
       </c>
       <c r="F39" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="22">
         <f t="shared" si="1"/>
@@ -14358,7 +14415,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -14392,11 +14449,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.79411764705882348</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -14405,11 +14462,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.20588235294117646</v>
+        <v>0.17647058823529413</v>
       </c>
     </row>
   </sheetData>
@@ -14430,8 +14487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EE12D0-9DBC-4060-A74D-7E7E6A600169}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14591,9 +14648,12 @@
       <c r="C10" s="9" t="s">
         <v>224</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -14696,9 +14756,12 @@
       <c r="C16" s="9" t="s">
         <v>230</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -14747,9 +14810,12 @@
       <c r="C19" s="9" t="s">
         <v>233</v>
       </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -14993,9 +15059,12 @@
       <c r="C33" s="9" t="s">
         <v>247</v>
       </c>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -15096,7 +15165,7 @@
       <c r="C39" s="40"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -15112,7 +15181,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -15146,11 +15215,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.82352941176470584</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -15159,11 +15228,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.17647058823529413</v>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
   </sheetData>
@@ -15182,10 +15251,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E1DDBF-2BA4-4D02-93FC-EAD0C83F48A7}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15200,7 +15269,7 @@
     <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>45</v>
       </c>
@@ -15212,7 +15281,7 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -15222,7 +15291,7 @@
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -15248,7 +15317,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>1629</v>
       </c>
@@ -15266,7 +15335,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>1711</v>
       </c>
@@ -15283,8 +15352,11 @@
         <f t="shared" ref="H6:H38" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>1983</v>
       </c>
@@ -15301,8 +15373,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>1713</v>
       </c>
@@ -15316,8 +15391,11 @@
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>1633</v>
       </c>
@@ -15334,8 +15412,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>2257</v>
       </c>
@@ -15353,7 +15434,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1689</v>
       </c>
@@ -15370,8 +15451,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>4154</v>
       </c>
@@ -15388,8 +15472,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>913</v>
       </c>
@@ -15407,7 +15494,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>2068</v>
       </c>
@@ -15422,7 +15509,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>2373</v>
       </c>
@@ -15439,8 +15526,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>4286</v>
       </c>
@@ -15457,8 +15547,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>1663</v>
       </c>
@@ -15475,8 +15568,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>1718</v>
       </c>
@@ -15493,8 +15589,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>2063</v>
       </c>
@@ -15511,8 +15610,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>1695</v>
       </c>
@@ -15529,8 +15631,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>4287</v>
       </c>
@@ -15544,8 +15649,11 @@
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>1738</v>
       </c>
@@ -15562,8 +15670,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>1723</v>
       </c>
@@ -15580,8 +15691,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>4311</v>
       </c>
@@ -15598,8 +15712,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>1724</v>
       </c>
@@ -15616,8 +15733,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>1404</v>
       </c>
@@ -15634,8 +15754,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>3850</v>
       </c>
@@ -15650,7 +15773,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>1996</v>
       </c>
@@ -15667,8 +15790,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>2593</v>
       </c>
@@ -15685,8 +15811,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>1801</v>
       </c>
@@ -15703,8 +15832,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>1795</v>
       </c>
@@ -15721,8 +15853,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>4288</v>
       </c>
@@ -15739,8 +15874,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>3197</v>
       </c>
@@ -15758,7 +15896,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>3272</v>
       </c>
@@ -15772,8 +15910,11 @@
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>693</v>
       </c>
@@ -15787,8 +15928,11 @@
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>1764</v>
       </c>
@@ -15803,7 +15947,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <v>3877</v>
       </c>
@@ -15820,8 +15964,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>1708</v>
       </c>
@@ -15838,8 +15985,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
         <v>491</v>
       </c>
@@ -15866,8 +16016,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C42" s="18" t="s">
         <v>492</v>
       </c>
@@ -15878,7 +16028,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="s">
         <v>490</v>
       </c>
@@ -15891,7 +16041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C44" s="19" t="s">
         <v>488</v>
       </c>
@@ -15904,7 +16054,7 @@
         <v>0.79411764705882348</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
         <v>489</v>
       </c>

--- a/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
+++ b/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\listados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F39970-0AA1-45EB-BA37-FF217A6A4BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7943629-CF8B-482A-B22E-79EBA15D4559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1710" windowWidth="14400" windowHeight="10755" tabRatio="710" activeTab="6" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
+    <workbookView xWindow="2415" yWindow="2055" windowWidth="14400" windowHeight="10755" tabRatio="710" firstSheet="1" activeTab="1" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="519">
   <si>
     <t>Codigo</t>
   </si>
@@ -1596,6 +1596,9 @@
   </si>
   <si>
     <t>RETIRADO</t>
+  </si>
+  <si>
+    <t>EX</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2223,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2317,6 +2320,9 @@
     <xf numFmtId="164" fontId="20" fillId="33" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2324,6 +2330,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2814,19 +2826,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
@@ -3006,19 +3018,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -3481,19 +3493,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.97499999999999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.86111111111111116</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.54545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0.97058823529411764</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.94117647058823528</c:v>
@@ -3670,19 +3682,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.1388888888888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.45454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17647058823529413</c:v>
+                  <c:v>2.9411764705882353E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.8823529411764705E-2</c:v>
@@ -5535,7 +5547,7 @@
       </c>
       <c r="B5" s="10">
         <f>'06-1'!D50</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="10">
         <f>'08-1'!D44</f>
@@ -5543,7 +5555,7 @@
       </c>
       <c r="D5" s="10">
         <f>'08-2'!D46</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E5" s="10">
         <f>'08-3'!D44</f>
@@ -5551,7 +5563,7 @@
       </c>
       <c r="F5" s="10">
         <f>'08-4'!D44</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G5" s="10">
         <f>'09-1'!D44</f>
@@ -5591,11 +5603,11 @@
       </c>
       <c r="P5" s="33">
         <f t="shared" ref="P5:P8" si="0">AVERAGE(B5:O5)</f>
-        <v>26.785714285714285</v>
+        <v>28.142857142857142</v>
       </c>
       <c r="Q5" s="33">
         <f t="shared" ref="Q5:Q8" si="1">MAX(B5:O5)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R5" s="33">
         <f t="shared" ref="R5:R8" si="2">MIN(B5:O5)</f>
@@ -5608,7 +5620,7 @@
       </c>
       <c r="B6" s="10">
         <f>'06-1'!D51</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="10">
         <f>'08-1'!D45</f>
@@ -5616,7 +5628,7 @@
       </c>
       <c r="D6" s="10">
         <f>'08-2'!D47</f>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E6" s="10">
         <f>'08-3'!D45</f>
@@ -5624,7 +5636,7 @@
       </c>
       <c r="F6" s="10">
         <f>'08-4'!D45</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G6" s="10">
         <f>'09-1'!D45</f>
@@ -5664,11 +5676,11 @@
       </c>
       <c r="P6" s="33">
         <f t="shared" si="0"/>
-        <v>7.2857142857142856</v>
+        <v>5.9285714285714288</v>
       </c>
       <c r="Q6" s="33">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R6" s="33">
         <f t="shared" si="2"/>
@@ -5681,7 +5693,7 @@
       </c>
       <c r="B7" s="32">
         <f>B5/B4</f>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="C7" s="32">
         <f t="shared" ref="C7:O7" si="3">C5/C4</f>
@@ -5689,7 +5701,7 @@
       </c>
       <c r="D7" s="32">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="E7" s="32">
         <f t="shared" si="3"/>
@@ -5697,7 +5709,7 @@
       </c>
       <c r="F7" s="32">
         <f t="shared" si="3"/>
-        <v>0.82352941176470584</v>
+        <v>0.97058823529411764</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="3"/>
@@ -5737,7 +5749,7 @@
       </c>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0.78426279602750193</v>
+        <v>0.82234636278753925</v>
       </c>
       <c r="Q7" s="34">
         <f t="shared" si="1"/>
@@ -5754,7 +5766,7 @@
       </c>
       <c r="B8" s="36">
         <f>B6/B4</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="36">
         <f t="shared" ref="C8:O8" si="4">C6/C4</f>
@@ -5762,7 +5774,7 @@
       </c>
       <c r="D8" s="36">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="E8" s="36">
         <f t="shared" si="4"/>
@@ -5770,7 +5782,7 @@
       </c>
       <c r="F8" s="36">
         <f t="shared" si="4"/>
-        <v>0.17647058823529413</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="G8" s="36">
         <f t="shared" si="4"/>
@@ -5810,7 +5822,7 @@
       </c>
       <c r="P8" s="37">
         <f t="shared" si="0"/>
-        <v>0.21573720397249807</v>
+        <v>0.17765363721246072</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="1"/>
@@ -6185,26 +6197,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6827,11 +6839,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>32</v>
@@ -6943,26 +6955,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -7531,11 +7543,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="22">
         <f>COUNTA(D5:D36)</f>
         <v>20</v>
@@ -7644,26 +7656,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -8235,11 +8247,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>16</v>
@@ -8348,26 +8360,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -9002,11 +9014,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>32</v>
@@ -9114,26 +9126,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
@@ -9751,11 +9763,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>29</v>
@@ -9864,26 +9876,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -10506,11 +10518,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>33</v>
@@ -10601,10 +10613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10612,36 +10624,36 @@
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="4" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -10666,8 +10678,11 @@
       <c r="H4" s="6" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="43">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2537</v>
       </c>
@@ -10684,8 +10699,11 @@
         <f>IF(COUNTA(D5:G5)=0,"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2685</v>
       </c>
@@ -10702,8 +10720,11 @@
         <f t="shared" ref="H6:H44" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4141</v>
       </c>
@@ -10720,8 +10741,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2561</v>
       </c>
@@ -10738,8 +10762,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3817</v>
       </c>
@@ -10757,7 +10784,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2780</v>
       </c>
@@ -10774,8 +10801,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2223</v>
       </c>
@@ -10793,7 +10823,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3790</v>
       </c>
@@ -10810,8 +10840,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4155</v>
       </c>
@@ -10829,7 +10862,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4146</v>
       </c>
@@ -10846,8 +10879,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3914</v>
       </c>
@@ -10864,8 +10900,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2560</v>
       </c>
@@ -10882,8 +10921,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2574</v>
       </c>
@@ -10900,8 +10942,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2692</v>
       </c>
@@ -10918,8 +10963,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2693</v>
       </c>
@@ -10936,8 +10984,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2540</v>
       </c>
@@ -10954,8 +11005,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2671</v>
       </c>
@@ -10972,8 +11026,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2696</v>
       </c>
@@ -10990,8 +11047,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2580</v>
       </c>
@@ -11008,8 +11068,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2700</v>
       </c>
@@ -11026,8 +11089,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4157</v>
       </c>
@@ -11045,7 +11111,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2980</v>
       </c>
@@ -11062,8 +11128,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2701</v>
       </c>
@@ -11080,8 +11149,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2792</v>
       </c>
@@ -11098,8 +11170,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3494</v>
       </c>
@@ -11116,8 +11191,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2584</v>
       </c>
@@ -11134,8 +11212,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3731</v>
       </c>
@@ -11152,8 +11233,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4306</v>
       </c>
@@ -11171,7 +11255,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2943</v>
       </c>
@@ -11188,8 +11272,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2789</v>
       </c>
@@ -11206,8 +11293,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2678</v>
       </c>
@@ -11224,8 +11314,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2679</v>
       </c>
@@ -11242,8 +11335,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2549</v>
       </c>
@@ -11260,8 +11356,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2680</v>
       </c>
@@ -11278,8 +11377,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2749</v>
       </c>
@@ -11296,8 +11398,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2208</v>
       </c>
@@ -11314,8 +11419,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2204</v>
       </c>
@@ -11325,12 +11433,18 @@
       <c r="C41" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="D41" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1907</v>
       </c>
@@ -11347,8 +11461,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2707</v>
       </c>
@@ -11366,7 +11483,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2558</v>
       </c>
@@ -11383,16 +11500,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="39" t="s">
+      <c r="I44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="22">
         <f>COUNTA(D5:D44)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E45" s="22">
         <f t="shared" ref="E45:G45" si="1">COUNTA(E5:E44)</f>
@@ -11408,10 +11528,10 @@
       </c>
       <c r="H45" s="23">
         <f>COUNTIF(H5:H44,"X")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -11419,7 +11539,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C48" s="18" t="s">
         <v>492</v>
       </c>
@@ -11446,11 +11566,11 @@
       </c>
       <c r="D50" s="10">
         <f>D49-D51</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E50" s="12">
         <f>D50/$D$49</f>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -11459,11 +11579,11 @@
       </c>
       <c r="D51" s="10">
         <f>H45</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="12">
         <f>D51/$D$49</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11490,8 +11610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8FFEA4-FAE9-4E98-A7DA-1A249C6193F4}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11508,26 +11628,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -12156,11 +12276,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>30</v>
@@ -12244,15 +12364,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="10000" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50465DDD-5234-470A-A297-95DF11514D18}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12260,40 +12381,40 @@
     <col min="1" max="1" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -12318,8 +12439,11 @@
       <c r="H4" s="6" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="42">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1625</v>
       </c>
@@ -12337,7 +12461,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2005</v>
       </c>
@@ -12347,12 +12471,18 @@
       <c r="C6" s="9" t="s">
         <v>116</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="4" t="str">
         <f t="shared" ref="H6:H40" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1890</v>
       </c>
@@ -12362,12 +12492,18 @@
       <c r="C7" s="9" t="s">
         <v>117</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3862</v>
       </c>
@@ -12388,7 +12524,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4028</v>
       </c>
@@ -12403,7 +12539,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1926</v>
       </c>
@@ -12421,7 +12557,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2385</v>
       </c>
@@ -12438,8 +12574,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3586</v>
       </c>
@@ -12449,12 +12588,18 @@
       <c r="C12" s="9" t="s">
         <v>122</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3848</v>
       </c>
@@ -12472,7 +12617,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>4283</v>
       </c>
@@ -12487,7 +12632,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>3587</v>
       </c>
@@ -12504,8 +12649,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2590</v>
       </c>
@@ -12520,7 +12668,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3879</v>
       </c>
@@ -12535,7 +12683,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2630</v>
       </c>
@@ -12545,12 +12693,18 @@
       <c r="C18" s="9" t="s">
         <v>128</v>
       </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2283</v>
       </c>
@@ -12560,12 +12714,18 @@
       <c r="C19" s="9" t="s">
         <v>129</v>
       </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1970</v>
       </c>
@@ -12582,8 +12742,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1974</v>
       </c>
@@ -12593,12 +12756,18 @@
       <c r="C21" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>704</v>
       </c>
@@ -12616,7 +12785,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>4426</v>
       </c>
@@ -12633,8 +12802,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1898</v>
       </c>
@@ -12651,8 +12823,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>4427</v>
       </c>
@@ -12669,8 +12844,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2306</v>
       </c>
@@ -12687,8 +12865,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1973</v>
       </c>
@@ -12698,12 +12879,18 @@
       <c r="C27" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1971</v>
       </c>
@@ -12720,8 +12907,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>4029</v>
       </c>
@@ -12736,7 +12926,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>3504</v>
       </c>
@@ -12746,12 +12936,18 @@
       <c r="C30" s="9" t="s">
         <v>140</v>
       </c>
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2639</v>
       </c>
@@ -12761,12 +12957,18 @@
       <c r="C31" s="9" t="s">
         <v>141</v>
       </c>
+      <c r="D31" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1938</v>
       </c>
@@ -12776,12 +12978,18 @@
       <c r="C32" s="9" t="s">
         <v>142</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1678</v>
       </c>
@@ -12798,8 +13006,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>4030</v>
       </c>
@@ -12816,8 +13027,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2333</v>
       </c>
@@ -12834,8 +13048,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>718</v>
       </c>
@@ -12845,12 +13062,18 @@
       <c r="C36" s="9" t="s">
         <v>146</v>
       </c>
+      <c r="G36" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1962</v>
       </c>
@@ -12860,12 +13083,18 @@
       <c r="C37" s="9" t="s">
         <v>147</v>
       </c>
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2133</v>
       </c>
@@ -12882,8 +13111,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>4284</v>
       </c>
@@ -12900,8 +13132,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>1965</v>
       </c>
@@ -12911,20 +13146,26 @@
       <c r="C40" s="9" t="s">
         <v>150</v>
       </c>
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
+        <v/>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="22">
         <f>COUNTA(D5:D40)</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E41" s="22">
         <f t="shared" ref="E41:G41" si="1">COUNTA(E5:E40)</f>
@@ -12936,15 +13177,19 @@
       </c>
       <c r="G41" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="23">
         <f>COUNTIF(H5:H40,"X")</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <f>COUNTA(I5:I40)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C44" s="18" t="s">
         <v>492</v>
       </c>
@@ -12955,7 +13200,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
         <v>490</v>
       </c>
@@ -12968,30 +13213,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C46" s="19" t="s">
         <v>488</v>
       </c>
       <c r="D46" s="10">
         <f>D45-D47</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E46" s="12">
         <f>D46/D45</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0.86111111111111116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C47" s="19" t="s">
         <v>489</v>
       </c>
       <c r="D47" s="10">
         <f>H41</f>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E47" s="12">
         <f>D47/D45</f>
-        <v>0.5</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -13012,7 +13257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67FE634-56F6-4127-84CF-6C812025014A}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -13029,26 +13274,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -13626,11 +13871,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>18</v>
@@ -13730,10 +13975,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CE2C6-5A3B-4910-989B-A6ED716B8D89}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13741,37 +13988,37 @@
     <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" hidden="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -13796,8 +14043,11 @@
       <c r="H4" s="6" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="38">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>1921</v>
       </c>
@@ -13814,8 +14064,11 @@
         <f>IF(COUNTA(D5:G5)=0,"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>1877</v>
       </c>
@@ -13833,7 +14086,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>2256</v>
       </c>
@@ -13851,7 +14104,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>1967</v>
       </c>
@@ -13869,7 +14122,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>3666</v>
       </c>
@@ -13886,8 +14139,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>4273</v>
       </c>
@@ -13902,7 +14158,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>2215</v>
       </c>
@@ -13919,8 +14175,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>1958</v>
       </c>
@@ -13930,12 +14189,18 @@
       <c r="C12" s="9" t="s">
         <v>192</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>1895</v>
       </c>
@@ -13952,8 +14217,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4150</v>
       </c>
@@ -13971,7 +14239,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>4274</v>
       </c>
@@ -13988,8 +14256,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>1904</v>
       </c>
@@ -14006,8 +14277,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>626</v>
       </c>
@@ -14025,7 +14299,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>683</v>
       </c>
@@ -14035,12 +14309,15 @@
       <c r="C18" s="9" t="s">
         <v>198</v>
       </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>3233</v>
       </c>
@@ -14057,8 +14334,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>4071</v>
       </c>
@@ -14075,8 +14355,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>2305</v>
       </c>
@@ -14093,8 +14376,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>1717</v>
       </c>
@@ -14111,8 +14397,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>1881</v>
       </c>
@@ -14130,7 +14419,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>2288</v>
       </c>
@@ -14147,8 +14436,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>3521</v>
       </c>
@@ -14166,7 +14458,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>2080</v>
       </c>
@@ -14176,12 +14468,18 @@
       <c r="C26" s="9" t="s">
         <v>206</v>
       </c>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>1930</v>
       </c>
@@ -14198,8 +14496,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>2620</v>
       </c>
@@ -14216,8 +14517,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>1901</v>
       </c>
@@ -14234,8 +14538,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>1911</v>
       </c>
@@ -14252,8 +14559,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>1673</v>
       </c>
@@ -14270,8 +14580,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>1887</v>
       </c>
@@ -14288,8 +14601,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>1647</v>
       </c>
@@ -14299,12 +14615,15 @@
       <c r="C33" s="9" t="s">
         <v>213</v>
       </c>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>1946</v>
       </c>
@@ -14321,8 +14640,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>1882</v>
       </c>
@@ -14339,8 +14661,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>1963</v>
       </c>
@@ -14357,8 +14682,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <v>4428</v>
       </c>
@@ -14368,12 +14696,15 @@
       <c r="C37" s="9" t="s">
         <v>217</v>
       </c>
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>1902</v>
       </c>
@@ -14391,15 +14722,15 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -14415,11 +14746,15 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <f>COUNTA(I5:I38)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C42" s="18" t="s">
         <v>492</v>
       </c>
@@ -14430,7 +14765,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="s">
         <v>490</v>
       </c>
@@ -14443,30 +14778,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C44" s="19" t="s">
         <v>488</v>
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.82352941176470584</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
         <v>489</v>
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.17647058823529413</v>
+        <v>2.9411764705882353E-2</v>
       </c>
     </row>
   </sheetData>
@@ -14487,7 +14822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EE12D0-9DBC-4060-A74D-7E7E6A600169}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -14504,26 +14839,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -15158,11 +15493,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>31</v>
@@ -15270,26 +15605,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -15990,11 +16325,11 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>27</v>
@@ -16103,26 +16438,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -16721,11 +17056,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>20</v>

--- a/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
+++ b/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\listados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7943629-CF8B-482A-B22E-79EBA15D4559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418B7524-7563-41DE-994B-AF2130504570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="2055" windowWidth="14400" windowHeight="10755" tabRatio="710" firstSheet="1" activeTab="1" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
+    <workbookView xWindow="3105" yWindow="2745" windowWidth="14400" windowHeight="10755" tabRatio="710" firstSheet="10" activeTab="13" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="531">
   <si>
     <t>Codigo</t>
   </si>
@@ -1599,6 +1599,43 @@
   </si>
   <si>
     <t>EX</t>
+  </si>
+  <si>
+    <t>observaciones</t>
+  </si>
+  <si>
+    <t>Muy dificil la conectividad con ella</t>
+  </si>
+  <si>
+    <t>La directora de grupo dice que no se reporta</t>
+  </si>
+  <si>
+    <t>comentarios</t>
+  </si>
+  <si>
+    <t>Le he escrito al director por este chico.
+Le he escrito por whatsapp</t>
+  </si>
+  <si>
+    <t>Esta joven se reitro</t>
+  </si>
+  <si>
+    <t>Por celular, por correo</t>
+  </si>
+  <si>
+    <t>SE RETIRO</t>
+  </si>
+  <si>
+    <t>El director de grupo dice que tienen dificultad de conexión</t>
+  </si>
+  <si>
+    <t>COMENTARIOS</t>
+  </si>
+  <si>
+    <t>se retiro</t>
+  </si>
+  <si>
+    <t>Incapacitado</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1811,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1981,6 +2018,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2223,7 +2266,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2323,6 +2366,43 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2332,10 +2412,7 @@
     <xf numFmtId="0" fontId="19" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2829,40 +2906,40 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>33</c:v>
@@ -3021,40 +3098,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3496,40 +3573,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86111111111111116</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54545454545454541</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.97058823529411764</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.94117647058823528</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79411764705882348</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.625</c:v>
+                  <c:v>0.96875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.48484848484848486</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87878787878787878</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3685,40 +3762,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11764705882352941</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1388888888888889</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45454545454545453</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.9411764705882353E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.8823529411764705E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.20588235294117646</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41176470588235292</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.375</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.51515151515151514</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8823529411764705E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.12121212121212122</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -5551,31 +5628,31 @@
       </c>
       <c r="C5" s="10">
         <f>'08-1'!D44</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" s="10">
         <f>'08-2'!D46</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E5" s="10">
         <f>'08-3'!D44</f>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F5" s="10">
         <f>'08-4'!D44</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="10">
         <f>'09-1'!D44</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="10">
         <f>'09-2'!D44</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I5" s="10">
         <f>'09-3'!D44</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J5" s="10">
         <f>'10-1'!D43</f>
@@ -5583,19 +5660,19 @@
       </c>
       <c r="K5" s="10">
         <f>'10-2'!D42</f>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L5" s="10">
         <f>'10-3'!D43</f>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M5" s="10">
         <f>'11-1'!D44</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N5" s="10">
         <f>'11-2'!D43</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O5" s="10">
         <f>'11-3'!D43</f>
@@ -5603,7 +5680,7 @@
       </c>
       <c r="P5" s="33">
         <f t="shared" ref="P5:P8" si="0">AVERAGE(B5:O5)</f>
-        <v>28.142857142857142</v>
+        <v>33.785714285714285</v>
       </c>
       <c r="Q5" s="33">
         <f t="shared" ref="Q5:Q8" si="1">MAX(B5:O5)</f>
@@ -5611,7 +5688,7 @@
       </c>
       <c r="R5" s="33">
         <f t="shared" ref="R5:R8" si="2">MIN(B5:O5)</f>
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5624,31 +5701,31 @@
       </c>
       <c r="C6" s="10">
         <f>'08-1'!D45</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="10">
         <f>'08-2'!D47</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="10">
         <f>'08-3'!D45</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F6" s="10">
         <f>'08-4'!D45</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="10">
         <f>'09-1'!D45</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="10">
         <f>'09-2'!D45</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I6" s="10">
         <f>'09-3'!D45</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J6" s="10">
         <f>'10-1'!D44</f>
@@ -5656,19 +5733,19 @@
       </c>
       <c r="K6" s="10">
         <f>'10-2'!D43</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L6" s="10">
         <f>'10-3'!D44</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M6" s="10">
         <f>'11-1'!D45</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="10">
         <f>'11-2'!D44</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O6" s="10">
         <f>'11-3'!D44</f>
@@ -5676,11 +5753,11 @@
       </c>
       <c r="P6" s="33">
         <f t="shared" si="0"/>
-        <v>5.9285714285714288</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="Q6" s="33">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="R6" s="33">
         <f t="shared" si="2"/>
@@ -5697,31 +5774,31 @@
       </c>
       <c r="C7" s="32">
         <f t="shared" ref="C7:O7" si="3">C5/C4</f>
-        <v>0.88235294117647056</v>
+        <v>1</v>
       </c>
       <c r="D7" s="32">
         <f t="shared" si="3"/>
-        <v>0.86111111111111116</v>
+        <v>1</v>
       </c>
       <c r="E7" s="32">
         <f t="shared" si="3"/>
-        <v>0.54545454545454541</v>
+        <v>1</v>
       </c>
       <c r="F7" s="32">
         <f t="shared" si="3"/>
-        <v>0.97058823529411764</v>
+        <v>1</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="3"/>
-        <v>0.94117647058823528</v>
+        <v>0.97058823529411764</v>
       </c>
       <c r="H7" s="32">
         <f t="shared" si="3"/>
-        <v>0.79411764705882348</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="I7" s="32">
         <f t="shared" si="3"/>
-        <v>0.58823529411764708</v>
+        <v>1</v>
       </c>
       <c r="J7" s="32">
         <f t="shared" si="3"/>
@@ -5729,19 +5806,19 @@
       </c>
       <c r="K7" s="32">
         <f t="shared" si="3"/>
-        <v>0.625</v>
+        <v>0.96875</v>
       </c>
       <c r="L7" s="32">
         <f t="shared" si="3"/>
-        <v>0.48484848484848486</v>
+        <v>1</v>
       </c>
       <c r="M7" s="32">
         <f t="shared" si="3"/>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="N7" s="32">
         <f t="shared" si="3"/>
-        <v>0.87878787878787878</v>
+        <v>1</v>
       </c>
       <c r="O7" s="32">
         <f t="shared" si="3"/>
@@ -5749,7 +5826,7 @@
       </c>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0.82234636278753925</v>
+        <v>0.99146533613445376</v>
       </c>
       <c r="Q7" s="34">
         <f t="shared" si="1"/>
@@ -5757,7 +5834,7 @@
       </c>
       <c r="R7" s="34">
         <f t="shared" si="2"/>
-        <v>0.48484848484848486</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5770,31 +5847,31 @@
       </c>
       <c r="C8" s="36">
         <f t="shared" ref="C8:O8" si="4">C6/C4</f>
-        <v>0.11764705882352941</v>
+        <v>0</v>
       </c>
       <c r="D8" s="36">
         <f t="shared" si="4"/>
-        <v>0.1388888888888889</v>
+        <v>0</v>
       </c>
       <c r="E8" s="36">
         <f t="shared" si="4"/>
-        <v>0.45454545454545453</v>
+        <v>0</v>
       </c>
       <c r="F8" s="36">
         <f t="shared" si="4"/>
-        <v>2.9411764705882353E-2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="36">
         <f t="shared" si="4"/>
-        <v>5.8823529411764705E-2</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="H8" s="36">
         <f t="shared" si="4"/>
-        <v>0.20588235294117646</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="I8" s="36">
         <f t="shared" si="4"/>
-        <v>0.41176470588235292</v>
+        <v>0</v>
       </c>
       <c r="J8" s="36">
         <f t="shared" si="4"/>
@@ -5802,19 +5879,19 @@
       </c>
       <c r="K8" s="36">
         <f t="shared" si="4"/>
-        <v>0.375</v>
+        <v>3.125E-2</v>
       </c>
       <c r="L8" s="36">
         <f t="shared" si="4"/>
-        <v>0.51515151515151514</v>
+        <v>0</v>
       </c>
       <c r="M8" s="36">
         <f t="shared" si="4"/>
-        <v>5.8823529411764705E-2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="36">
         <f t="shared" si="4"/>
-        <v>0.12121212121212122</v>
+        <v>0</v>
       </c>
       <c r="O8" s="36">
         <f t="shared" si="4"/>
@@ -5822,11 +5899,11 @@
       </c>
       <c r="P8" s="37">
         <f t="shared" si="0"/>
-        <v>0.17765363721246072</v>
+        <v>8.5346638655462177E-3</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="1"/>
-        <v>0.51515151515151514</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="R8" s="37">
         <f t="shared" si="2"/>
@@ -6179,7 +6256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE5E425-7606-4CA0-91F7-19ECFA2BFA71}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -6197,26 +6274,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6839,11 +6916,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>32</v>
@@ -6932,13 +7009,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D694D4BB-7FA7-4B24-91F4-C3E54854D28E}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6954,29 +7031,29 @@
     <col min="9" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -7001,8 +7078,11 @@
       <c r="H4" s="6" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>646</v>
       </c>
@@ -7020,7 +7100,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>2094</v>
       </c>
@@ -7030,12 +7110,15 @@
       <c r="C6" s="9" t="s">
         <v>356</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="4" t="str">
         <f t="shared" ref="H6:H36" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>871</v>
       </c>
@@ -7045,12 +7128,15 @@
       <c r="C7" s="9" t="s">
         <v>357</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>1379</v>
       </c>
@@ -7068,7 +7154,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>650</v>
       </c>
@@ -7086,7 +7172,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>4300</v>
       </c>
@@ -7096,12 +7182,15 @@
       <c r="C10" s="9" t="s">
         <v>360</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>3543</v>
       </c>
@@ -7111,12 +7200,15 @@
       <c r="C11" s="9" t="s">
         <v>361</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>4104</v>
       </c>
@@ -7134,7 +7226,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>2011</v>
       </c>
@@ -7152,7 +7244,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>2338</v>
       </c>
@@ -7170,7 +7262,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>3671</v>
       </c>
@@ -7188,7 +7280,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>627</v>
       </c>
@@ -7206,22 +7298,25 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+    <row r="17" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="49">
         <v>3861</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="49">
         <v>13</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="44" t="s">
         <v>367</v>
       </c>
-      <c r="H17" s="4" t="str">
+      <c r="H17" s="46" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="51" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>629</v>
       </c>
@@ -7239,7 +7334,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>918</v>
       </c>
@@ -7257,7 +7352,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>4054</v>
       </c>
@@ -7275,7 +7370,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>3542</v>
       </c>
@@ -7293,7 +7388,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>1434</v>
       </c>
@@ -7311,7 +7406,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>632</v>
       </c>
@@ -7329,7 +7424,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>633</v>
       </c>
@@ -7339,12 +7434,15 @@
       <c r="C24" s="9" t="s">
         <v>374</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>3598</v>
       </c>
@@ -7362,7 +7460,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>636</v>
       </c>
@@ -7380,7 +7478,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>4082</v>
       </c>
@@ -7390,12 +7488,15 @@
       <c r="C27" s="9" t="s">
         <v>377</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>2997</v>
       </c>
@@ -7405,12 +7506,15 @@
       <c r="C28" s="9" t="s">
         <v>378</v>
       </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>3839</v>
       </c>
@@ -7420,12 +7524,15 @@
       <c r="C29" s="9" t="s">
         <v>379</v>
       </c>
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>716</v>
       </c>
@@ -7435,12 +7542,15 @@
       <c r="C30" s="9" t="s">
         <v>380</v>
       </c>
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>4055</v>
       </c>
@@ -7458,7 +7568,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>4079</v>
       </c>
@@ -7468,9 +7578,12 @@
       <c r="C32" s="9" t="s">
         <v>382</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -7537,20 +7650,23 @@
       <c r="C36" s="9" t="s">
         <v>386</v>
       </c>
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="22">
         <f>COUNTA(D5:D36)</f>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E37" s="22">
         <f t="shared" ref="E37:G37" si="1">COUNTA(#REF!)</f>
@@ -7566,7 +7682,7 @@
       </c>
       <c r="H37" s="23">
         <f>COUNTIF($H$5:$H$36,"X")</f>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -7600,11 +7716,11 @@
       </c>
       <c r="D42" s="10">
         <f>D41-D43</f>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E42" s="12">
         <f>D42/D41</f>
-        <v>0.625</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -7613,11 +7729,11 @@
       </c>
       <c r="D43" s="10">
         <f>H37</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E43" s="12">
         <f>D43/D41</f>
-        <v>0.375</v>
+        <v>3.125E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7638,8 +7754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6AB2A-DF13-43E5-8B37-FC6F541704E3}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7656,26 +7772,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -7767,9 +7883,12 @@
       <c r="C8" s="9" t="s">
         <v>390</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>487</v>
+      </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7782,9 +7901,12 @@
       <c r="C9" s="9" t="s">
         <v>391</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>487</v>
+      </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -7833,9 +7955,12 @@
       <c r="C12" s="9" t="s">
         <v>394</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7848,9 +7973,12 @@
       <c r="C13" s="9" t="s">
         <v>395</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7863,9 +7991,12 @@
       <c r="C14" s="9" t="s">
         <v>396</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -7950,9 +8081,12 @@
       <c r="C19" s="9" t="s">
         <v>401</v>
       </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -7965,9 +8099,12 @@
       <c r="C20" s="9" t="s">
         <v>402</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8016,9 +8153,12 @@
       <c r="C23" s="9" t="s">
         <v>405</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8049,9 +8189,12 @@
       <c r="C25" s="9" t="s">
         <v>407</v>
       </c>
+      <c r="D25" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -8064,9 +8207,12 @@
       <c r="C26" s="9" t="s">
         <v>408</v>
       </c>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -8079,9 +8225,12 @@
       <c r="C27" s="9" t="s">
         <v>409</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -8094,9 +8243,12 @@
       <c r="C28" s="9" t="s">
         <v>410</v>
       </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -8127,9 +8279,12 @@
       <c r="C30" s="9" t="s">
         <v>412</v>
       </c>
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -8178,9 +8333,12 @@
       <c r="C33" s="9" t="s">
         <v>415</v>
       </c>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -8193,9 +8351,12 @@
       <c r="C34" s="9" t="s">
         <v>416</v>
       </c>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -8208,9 +8369,12 @@
       <c r="C35" s="9" t="s">
         <v>417</v>
       </c>
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -8223,9 +8387,12 @@
       <c r="C36" s="9" t="s">
         <v>418</v>
       </c>
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -8247,14 +8414,14 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -8270,7 +8437,7 @@
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -8304,11 +8471,11 @@
       </c>
       <c r="D43" s="10">
         <f>D42-D44</f>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E43" s="12">
         <f>D43/D42</f>
-        <v>0.48484848484848486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -8317,11 +8484,11 @@
       </c>
       <c r="D44" s="10">
         <f>H38</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D42</f>
-        <v>0.51515151515151514</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8342,8 +8509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FF5F04-C5ED-4EA2-B9A1-243676970C03}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8360,26 +8527,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -8633,9 +8800,12 @@
       <c r="C17" s="9" t="s">
         <v>432</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -8756,9 +8926,12 @@
       <c r="C24" s="9" t="s">
         <v>439</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -9014,14 +9187,14 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -9037,7 +9210,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF(H5:H38,"X")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -9071,11 +9244,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -9084,11 +9257,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>5.8823529411764705E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9107,10 +9280,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A71EA1-F646-4F3E-830E-E1FBC54465F3}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9125,32 +9298,32 @@
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -9175,8 +9348,11 @@
       <c r="H4" s="6" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="55" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>1601</v>
       </c>
@@ -9187,12 +9363,15 @@
         <v>48</v>
       </c>
       <c r="D5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H5" s="4" t="str">
         <f>IF(COUNTA(D5:G5)=0,"X","")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>870</v>
       </c>
@@ -9210,7 +9389,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>3820</v>
       </c>
@@ -9228,7 +9407,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>799</v>
       </c>
@@ -9246,7 +9425,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>3601</v>
       </c>
@@ -9256,13 +9435,15 @@
       <c r="C9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>4059</v>
       </c>
@@ -9280,7 +9461,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>2757</v>
       </c>
@@ -9298,7 +9479,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>1167</v>
       </c>
@@ -9316,7 +9497,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>771</v>
       </c>
@@ -9334,7 +9515,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>805</v>
       </c>
@@ -9352,7 +9533,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>1521</v>
       </c>
@@ -9370,7 +9551,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>814</v>
       </c>
@@ -9388,7 +9569,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>851</v>
       </c>
@@ -9406,7 +9587,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>1391</v>
       </c>
@@ -9424,7 +9605,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>4304</v>
       </c>
@@ -9442,7 +9623,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>3548</v>
       </c>
@@ -9452,13 +9633,15 @@
       <c r="C20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>777</v>
       </c>
@@ -9476,7 +9659,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>4305</v>
       </c>
@@ -9494,7 +9677,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>2459</v>
       </c>
@@ -9512,7 +9695,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>3188</v>
       </c>
@@ -9522,13 +9705,15 @@
       <c r="C24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>3668</v>
       </c>
@@ -9546,7 +9731,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>3186</v>
       </c>
@@ -9564,7 +9749,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>746</v>
       </c>
@@ -9582,7 +9767,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>4058</v>
       </c>
@@ -9600,7 +9785,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>829</v>
       </c>
@@ -9617,8 +9802,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>749</v>
       </c>
@@ -9636,7 +9824,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>1424</v>
       </c>
@@ -9654,7 +9842,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>938</v>
       </c>
@@ -9763,14 +9951,14 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -9778,7 +9966,7 @@
       </c>
       <c r="F38" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="22">
         <f t="shared" si="1"/>
@@ -9786,7 +9974,7 @@
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -9820,11 +10008,11 @@
       </c>
       <c r="D43" s="10">
         <f>D42-D44</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E43" s="12">
         <f>D43/D42</f>
-        <v>0.87878787878787878</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -9833,11 +10021,11 @@
       </c>
       <c r="D44" s="10">
         <f>H38</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D42</f>
-        <v>0.12121212121212122</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9858,7 +10046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D56A688-FE73-4566-841A-31D529165F68}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -9876,26 +10064,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -10518,11 +10706,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>33</v>
@@ -10615,8 +10803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10624,34 +10812,34 @@
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -10678,7 +10866,7 @@
       <c r="H4" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="40">
         <v>43959</v>
       </c>
     </row>
@@ -11505,11 +11693,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="41"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="22">
         <f>COUNTA(D5:D44)</f>
         <v>40</v>
@@ -11610,8 +11798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8FFEA4-FAE9-4E98-A7DA-1A249C6193F4}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11628,26 +11816,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -11775,9 +11963,12 @@
       <c r="C10" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -11826,9 +12017,12 @@
       <c r="C13" s="9" t="s">
         <v>89</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -12093,9 +12287,12 @@
       <c r="C28" s="9" t="s">
         <v>104</v>
       </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -12234,9 +12431,12 @@
       <c r="C36" s="9" t="s">
         <v>112</v>
       </c>
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -12276,14 +12476,14 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -12299,7 +12499,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF(H5:H38,"X")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -12333,11 +12533,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.88235294117647056</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -12346,11 +12546,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.11764705882352941</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12370,10 +12570,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50465DDD-5234-470A-A297-95DF11514D18}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12385,36 +12585,38 @@
     <col min="5" max="5" width="15.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="3"/>
+    <col min="8" max="9" width="15.5703125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -12439,11 +12641,14 @@
       <c r="H4" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="J4" s="39">
         <v>43959</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1625</v>
       </c>
@@ -12460,8 +12665,9 @@
         <f>IF(COUNTA(D5:G5)=0,"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2005</v>
       </c>
@@ -12478,11 +12684,12 @@
         <f t="shared" ref="H6:H40" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
         <v/>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+      <c r="J6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1890</v>
       </c>
@@ -12499,11 +12706,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="4"/>
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3862</v>
       </c>
@@ -12523,8 +12731,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4028</v>
       </c>
@@ -12534,12 +12743,16 @@
       <c r="C9" s="9" t="s">
         <v>119</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1926</v>
       </c>
@@ -12556,8 +12769,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2385</v>
       </c>
@@ -12574,11 +12788,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="4"/>
+      <c r="J11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3586</v>
       </c>
@@ -12595,11 +12810,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="4"/>
+      <c r="J12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3848</v>
       </c>
@@ -12616,8 +12832,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>4283</v>
       </c>
@@ -12627,12 +12844,16 @@
       <c r="C14" s="9" t="s">
         <v>124</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>3587</v>
       </c>
@@ -12649,11 +12870,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="4"/>
+      <c r="J15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2590</v>
       </c>
@@ -12663,12 +12885,18 @@
       <c r="C16" s="9" t="s">
         <v>126</v>
       </c>
+      <c r="F16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3879</v>
       </c>
@@ -12678,12 +12906,16 @@
       <c r="C17" s="9" t="s">
         <v>127</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2630</v>
       </c>
@@ -12700,11 +12932,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="4"/>
+      <c r="J18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2283</v>
       </c>
@@ -12721,11 +12954,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="4"/>
+      <c r="J19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1970</v>
       </c>
@@ -12742,11 +12976,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="4"/>
+      <c r="J20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1974</v>
       </c>
@@ -12763,11 +12998,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="4"/>
+      <c r="J21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>704</v>
       </c>
@@ -12784,8 +13020,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>4426</v>
       </c>
@@ -12802,11 +13039,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="4"/>
+      <c r="J23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1898</v>
       </c>
@@ -12823,11 +13061,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="4"/>
+      <c r="J24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>4427</v>
       </c>
@@ -12844,11 +13083,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="4"/>
+      <c r="J25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2306</v>
       </c>
@@ -12865,11 +13105,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="4"/>
+      <c r="J26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1973</v>
       </c>
@@ -12886,11 +13127,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="4"/>
+      <c r="J27" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1971</v>
       </c>
@@ -12907,11 +13149,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="4"/>
+      <c r="J28" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>4029</v>
       </c>
@@ -12921,12 +13164,18 @@
       <c r="C29" s="9" t="s">
         <v>139</v>
       </c>
+      <c r="F29" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>3504</v>
       </c>
@@ -12943,11 +13192,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="4"/>
+      <c r="J30" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2639</v>
       </c>
@@ -12964,11 +13214,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="4"/>
+      <c r="J31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1938</v>
       </c>
@@ -12985,11 +13236,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="4"/>
+      <c r="J32" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1678</v>
       </c>
@@ -13006,11 +13258,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="4"/>
+      <c r="J33" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>4030</v>
       </c>
@@ -13027,11 +13280,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="4"/>
+      <c r="J34" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2333</v>
       </c>
@@ -13048,11 +13302,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="4"/>
+      <c r="J35" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>718</v>
       </c>
@@ -13069,11 +13324,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="4"/>
+      <c r="J36" s="3" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1962</v>
       </c>
@@ -13090,11 +13346,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="4"/>
+      <c r="J37" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2133</v>
       </c>
@@ -13111,11 +13368,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="4"/>
+      <c r="J38" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>4284</v>
       </c>
@@ -13132,11 +13390,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="4"/>
+      <c r="J39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>1965</v>
       </c>
@@ -13153,19 +13412,20 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+      <c r="I40" s="4"/>
+      <c r="J40" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="22">
         <f>COUNTA(D5:D40)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E41" s="22">
         <f t="shared" ref="E41:G41" si="1">COUNTA(E5:E40)</f>
@@ -13173,7 +13433,7 @@
       </c>
       <c r="F41" s="22">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" s="22">
         <f t="shared" si="1"/>
@@ -13181,15 +13441,16 @@
       </c>
       <c r="H41" s="23">
         <f>COUNTIF(H5:H40,"X")</f>
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <f>COUNTA(I5:I40)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="42"/>
+      <c r="J41" s="3">
+        <f>COUNTA(J5:J40)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C44" s="18" t="s">
         <v>492</v>
       </c>
@@ -13200,7 +13461,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
         <v>490</v>
       </c>
@@ -13213,30 +13474,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C46" s="19" t="s">
         <v>488</v>
       </c>
       <c r="D46" s="10">
         <f>D45-D47</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E46" s="12">
         <f>D46/D45</f>
-        <v>0.86111111111111116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C47" s="19" t="s">
         <v>489</v>
       </c>
       <c r="D47" s="10">
         <f>H41</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E47" s="12">
         <f>D47/D45</f>
-        <v>0.1388888888888889</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13255,10 +13516,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67FE634-56F6-4127-84CF-6C812025014A}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13273,29 +13536,29 @@
     <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -13320,8 +13583,11 @@
       <c r="H4" s="6" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>1905</v>
       </c>
@@ -13339,7 +13605,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>2251</v>
       </c>
@@ -13357,7 +13623,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>4083</v>
       </c>
@@ -13367,12 +13633,15 @@
       <c r="C7" s="9" t="s">
         <v>153</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>1920</v>
       </c>
@@ -13382,12 +13651,15 @@
       <c r="C8" s="9" t="s">
         <v>154</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>2643</v>
       </c>
@@ -13405,7 +13677,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>1712</v>
       </c>
@@ -13415,12 +13687,15 @@
       <c r="C10" s="9" t="s">
         <v>156</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>4421</v>
       </c>
@@ -13438,7 +13713,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>4025</v>
       </c>
@@ -13456,7 +13731,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>1939</v>
       </c>
@@ -13474,7 +13749,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>1931</v>
       </c>
@@ -13484,12 +13759,15 @@
       <c r="C14" s="9" t="s">
         <v>160</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>3875</v>
       </c>
@@ -13507,7 +13785,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>1924</v>
       </c>
@@ -13517,12 +13795,15 @@
       <c r="C16" s="9" t="s">
         <v>162</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>2085</v>
       </c>
@@ -13532,12 +13813,15 @@
       <c r="C17" s="9" t="s">
         <v>163</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>2631</v>
       </c>
@@ -13555,7 +13839,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>2265</v>
       </c>
@@ -13573,7 +13857,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>4275</v>
       </c>
@@ -13591,7 +13875,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>3566</v>
       </c>
@@ -13609,7 +13893,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>4098</v>
       </c>
@@ -13627,7 +13911,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>1888</v>
       </c>
@@ -13645,7 +13929,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>4026</v>
       </c>
@@ -13663,7 +13947,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>2296</v>
       </c>
@@ -13681,7 +13965,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>3247</v>
       </c>
@@ -13699,7 +13983,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>1726</v>
       </c>
@@ -13709,12 +13993,15 @@
       <c r="C27" s="9" t="s">
         <v>174</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>2629</v>
       </c>
@@ -13724,12 +14011,15 @@
       <c r="C28" s="9" t="s">
         <v>175</v>
       </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>1906</v>
       </c>
@@ -13739,12 +14029,15 @@
       <c r="C29" s="9" t="s">
         <v>176</v>
       </c>
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>2097</v>
       </c>
@@ -13762,7 +14055,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>2786</v>
       </c>
@@ -13772,12 +14065,15 @@
       <c r="C31" s="9" t="s">
         <v>178</v>
       </c>
+      <c r="D31" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>1932</v>
       </c>
@@ -13787,9 +14083,18 @@
       <c r="C32" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -13802,9 +14107,12 @@
       <c r="C33" s="9" t="s">
         <v>180</v>
       </c>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -13817,9 +14125,12 @@
       <c r="C34" s="9" t="s">
         <v>181</v>
       </c>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -13832,9 +14143,12 @@
       <c r="C35" s="9" t="s">
         <v>182</v>
       </c>
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -13847,9 +14161,12 @@
       <c r="C36" s="9" t="s">
         <v>183</v>
       </c>
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -13871,14 +14188,14 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -13890,11 +14207,11 @@
       </c>
       <c r="G38" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -13939,11 +14256,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.54545454545454541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -13952,11 +14269,11 @@
       </c>
       <c r="D45" s="10">
         <f>H38</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.45454545454545453</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13975,12 +14292,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CE2C6-5A3B-4910-989B-A6ED716B8D89}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B5" sqref="B5"/>
-      <selection pane="topRight" activeCell="C34" sqref="C34"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13988,37 +14305,39 @@
     <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="15.5703125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -14043,11 +14362,14 @@
       <c r="H4" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="J4" s="38">
         <v>43958</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>1921</v>
       </c>
@@ -14064,11 +14386,12 @@
         <f>IF(COUNTA(D5:G5)=0,"X","")</f>
         <v/>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="4"/>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>1877</v>
       </c>
@@ -14085,8 +14408,9 @@
         <f t="shared" ref="H6:H38" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>2256</v>
       </c>
@@ -14103,8 +14427,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>1967</v>
       </c>
@@ -14121,8 +14446,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>3666</v>
       </c>
@@ -14139,26 +14465,36 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="I9" s="4"/>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
         <v>4273</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="43">
         <v>6</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>2215</v>
       </c>
@@ -14175,11 +14511,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="4"/>
+      <c r="J11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>1958</v>
       </c>
@@ -14196,11 +14533,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="4"/>
+      <c r="J12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>1895</v>
       </c>
@@ -14217,11 +14555,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="4"/>
+      <c r="J13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4150</v>
       </c>
@@ -14238,8 +14577,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>4274</v>
       </c>
@@ -14256,11 +14596,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="4"/>
+      <c r="J15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>1904</v>
       </c>
@@ -14277,11 +14618,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="4"/>
+      <c r="J16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>626</v>
       </c>
@@ -14298,8 +14640,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>683</v>
       </c>
@@ -14316,8 +14659,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>3233</v>
       </c>
@@ -14334,11 +14678,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="4"/>
+      <c r="J19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>4071</v>
       </c>
@@ -14355,11 +14700,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="4"/>
+      <c r="J20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>2305</v>
       </c>
@@ -14376,11 +14722,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="4"/>
+      <c r="J21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>1717</v>
       </c>
@@ -14397,11 +14744,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="4"/>
+      <c r="J22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>1881</v>
       </c>
@@ -14418,8 +14766,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>2288</v>
       </c>
@@ -14436,11 +14785,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="4"/>
+      <c r="J24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>3521</v>
       </c>
@@ -14457,8 +14807,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>2080</v>
       </c>
@@ -14475,11 +14826,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="4"/>
+      <c r="J26" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>1930</v>
       </c>
@@ -14496,11 +14848,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="4"/>
+      <c r="J27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>2620</v>
       </c>
@@ -14517,11 +14870,14 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>1901</v>
       </c>
@@ -14538,11 +14894,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="4"/>
+      <c r="J29" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>1911</v>
       </c>
@@ -14559,11 +14916,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="4"/>
+      <c r="J30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>1673</v>
       </c>
@@ -14580,11 +14938,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="4"/>
+      <c r="J31" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>1887</v>
       </c>
@@ -14601,11 +14960,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="4"/>
+      <c r="J32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>1647</v>
       </c>
@@ -14622,8 +14982,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>1946</v>
       </c>
@@ -14640,11 +15001,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="4"/>
+      <c r="J34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>1882</v>
       </c>
@@ -14661,11 +15023,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="4"/>
+      <c r="J35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>1963</v>
       </c>
@@ -14682,11 +15045,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="4"/>
+      <c r="J36" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <v>4428</v>
       </c>
@@ -14703,8 +15067,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>1902</v>
       </c>
@@ -14721,13 +15086,14 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>32</v>
@@ -14738,7 +15104,7 @@
       </c>
       <c r="F39" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="22">
         <f t="shared" si="1"/>
@@ -14746,15 +15112,16 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>1</v>
-      </c>
-      <c r="I39" s="2">
-        <f>COUNTA(I5:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="42"/>
+      <c r="J39" s="2">
+        <f>COUNTA(J5:J38)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C42" s="18" t="s">
         <v>492</v>
       </c>
@@ -14765,7 +15132,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="s">
         <v>490</v>
       </c>
@@ -14778,30 +15145,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C44" s="19" t="s">
         <v>488</v>
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.97058823529411764</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
         <v>489</v>
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>2.9411764705882353E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14820,10 +15187,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EE12D0-9DBC-4060-A74D-7E7E6A600169}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14838,29 +15205,29 @@
     <col min="8" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -14885,8 +15252,11 @@
       <c r="H4" s="6" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>3860</v>
       </c>
@@ -14904,7 +15274,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>4047</v>
       </c>
@@ -14922,7 +15292,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>1897</v>
       </c>
@@ -14940,7 +15310,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>2252</v>
       </c>
@@ -14958,7 +15328,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>1985</v>
       </c>
@@ -14972,8 +15342,11 @@
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>2008</v>
       </c>
@@ -14991,7 +15364,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>1632</v>
       </c>
@@ -15009,7 +15382,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>4290</v>
       </c>
@@ -15027,7 +15400,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>3375</v>
       </c>
@@ -15045,7 +15418,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>1658</v>
       </c>
@@ -15063,7 +15436,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>625</v>
       </c>
@@ -15081,25 +15454,28 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+    <row r="16" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49">
         <v>1987</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="49">
         <v>12</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>1662</v>
       </c>
@@ -15117,7 +15493,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>3174</v>
       </c>
@@ -15135,7 +15511,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>4291</v>
       </c>
@@ -15153,7 +15529,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>706</v>
       </c>
@@ -15171,7 +15547,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>1666</v>
       </c>
@@ -15189,7 +15565,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>1697</v>
       </c>
@@ -15207,7 +15583,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>4292</v>
       </c>
@@ -15225,7 +15601,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>3871</v>
       </c>
@@ -15243,7 +15619,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>1670</v>
       </c>
@@ -15261,7 +15637,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>4050</v>
       </c>
@@ -15279,7 +15655,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>1674</v>
       </c>
@@ -15297,7 +15673,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>2323</v>
       </c>
@@ -15315,7 +15691,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>4293</v>
       </c>
@@ -15333,7 +15709,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>4051</v>
       </c>
@@ -15351,7 +15727,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>717</v>
       </c>
@@ -15361,12 +15737,18 @@
       <c r="C31" s="9" t="s">
         <v>245</v>
       </c>
+      <c r="F31" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>1729</v>
       </c>
@@ -15493,11 +15875,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>31</v>
@@ -15508,7 +15890,7 @@
       </c>
       <c r="F39" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="22">
         <f t="shared" si="1"/>
@@ -15516,7 +15898,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -15550,11 +15932,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.94117647058823528</v>
+        <v>0.97058823529411764</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -15563,11 +15945,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>5.8823529411764705E-2</v>
+        <v>2.9411764705882353E-2</v>
       </c>
     </row>
   </sheetData>
@@ -15586,10 +15968,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E1DDBF-2BA4-4D02-93FC-EAD0C83F48A7}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15604,29 +15986,31 @@
     <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -15651,8 +16035,11 @@
       <c r="H4" s="6" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="13" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>1629</v>
       </c>
@@ -15669,8 +16056,9 @@
         <f>IF(COUNTA(D5:G5)=0,"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>1711</v>
       </c>
@@ -15687,11 +16075,12 @@
         <f t="shared" ref="H6:H38" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
         <v/>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>1983</v>
       </c>
@@ -15708,11 +16097,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>1713</v>
       </c>
@@ -15722,15 +16112,19 @@
       <c r="C8" s="9" t="s">
         <v>256</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="I8" s="2" t="s">
+        <v/>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>1633</v>
       </c>
@@ -15747,11 +16141,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="4"/>
+      <c r="J9" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>2257</v>
       </c>
@@ -15768,8 +16163,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1689</v>
       </c>
@@ -15786,11 +16182,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>4154</v>
       </c>
@@ -15807,11 +16204,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>913</v>
       </c>
@@ -15828,23 +16226,31 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="43">
         <v>2068</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="43">
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="H14" s="4" t="str">
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="50" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>2373</v>
       </c>
@@ -15861,11 +16267,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="4"/>
+      <c r="J15" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>4286</v>
       </c>
@@ -15882,11 +16289,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="4"/>
+      <c r="J16" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>1663</v>
       </c>
@@ -15903,11 +16311,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="4"/>
+      <c r="J17" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>1718</v>
       </c>
@@ -15924,11 +16333,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="4"/>
+      <c r="J18" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>2063</v>
       </c>
@@ -15945,11 +16355,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="4"/>
+      <c r="J19" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>1695</v>
       </c>
@@ -15966,11 +16377,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="4"/>
+      <c r="J20" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>4287</v>
       </c>
@@ -15980,15 +16392,19 @@
       <c r="C21" s="9" t="s">
         <v>269</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="I21" s="2" t="s">
+        <v/>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>1738</v>
       </c>
@@ -16005,11 +16421,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="4"/>
+      <c r="J22" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>1723</v>
       </c>
@@ -16026,11 +16443,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="4"/>
+      <c r="J23" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>4311</v>
       </c>
@@ -16047,11 +16465,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="4"/>
+      <c r="J24" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>1724</v>
       </c>
@@ -16068,11 +16487,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="4"/>
+      <c r="J25" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>1404</v>
       </c>
@@ -16089,11 +16509,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="4"/>
+      <c r="J26" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>3850</v>
       </c>
@@ -16103,12 +16524,16 @@
       <c r="C27" s="9" t="s">
         <v>275</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>1996</v>
       </c>
@@ -16125,11 +16550,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="4"/>
+      <c r="J28" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>2593</v>
       </c>
@@ -16146,11 +16572,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="4"/>
+      <c r="J29" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>1801</v>
       </c>
@@ -16167,11 +16594,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="4"/>
+      <c r="J30" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>1795</v>
       </c>
@@ -16188,11 +16616,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>4288</v>
       </c>
@@ -16209,11 +16638,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="4"/>
+      <c r="J32" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>3197</v>
       </c>
@@ -16230,8 +16660,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>3272</v>
       </c>
@@ -16241,15 +16672,19 @@
       <c r="C34" s="9" t="s">
         <v>282</v>
       </c>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="I34" s="2" t="s">
+        <v/>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>693</v>
       </c>
@@ -16259,15 +16694,19 @@
       <c r="C35" s="9" t="s">
         <v>283</v>
       </c>
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="I35" s="2" t="s">
+        <v/>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>1764</v>
       </c>
@@ -16281,8 +16720,9 @@
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <v>3877</v>
       </c>
@@ -16299,11 +16739,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="4"/>
+      <c r="J37" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>1708</v>
       </c>
@@ -16320,19 +16761,20 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="4"/>
+      <c r="J38" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
+    <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -16348,11 +16790,12 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I39" s="42"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C42" s="18" t="s">
         <v>492</v>
       </c>
@@ -16363,7 +16806,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="s">
         <v>490</v>
       </c>
@@ -16376,30 +16819,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C44" s="19" t="s">
         <v>488</v>
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.79411764705882348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
         <v>489</v>
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.20588235294117646</v>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
   </sheetData>
@@ -16420,8 +16863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26084B0-3C12-462B-B273-6776CCBE4AD2}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B38"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16438,26 +16881,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -16513,9 +16956,12 @@
       <c r="C6" s="9" t="s">
         <v>288</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="4" t="str">
         <f t="shared" ref="H6:H38" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -16528,9 +16974,12 @@
       <c r="C7" s="9" t="s">
         <v>289</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -16543,9 +16992,12 @@
       <c r="C8" s="9" t="s">
         <v>290</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -16558,9 +17010,12 @@
       <c r="C9" s="9" t="s">
         <v>291</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -16627,9 +17082,12 @@
       <c r="C13" s="9" t="s">
         <v>295</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -16660,9 +17118,12 @@
       <c r="C15" s="9" t="s">
         <v>297</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -16675,9 +17136,12 @@
       <c r="C16" s="9" t="s">
         <v>298</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -16870,9 +17334,12 @@
       <c r="C27" s="9" t="s">
         <v>310</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -16939,9 +17406,12 @@
       <c r="C31" s="9" t="s">
         <v>314</v>
       </c>
+      <c r="D31" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -16972,9 +17442,12 @@
       <c r="C33" s="9" t="s">
         <v>316</v>
       </c>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -17005,9 +17478,12 @@
       <c r="C35" s="9" t="s">
         <v>318</v>
       </c>
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -17020,9 +17496,12 @@
       <c r="C36" s="9" t="s">
         <v>319</v>
       </c>
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -17035,9 +17514,12 @@
       <c r="C37" s="9" t="s">
         <v>320</v>
       </c>
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -17050,20 +17532,23 @@
       <c r="C38" s="9" t="s">
         <v>321</v>
       </c>
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -17079,7 +17564,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -17113,11 +17598,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.58823529411764708</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -17126,11 +17611,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.41176470588235292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">

--- a/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
+++ b/2020/listados/Listado de medios de comunicacion con estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\listados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418B7524-7563-41DE-994B-AF2130504570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EB4C1A-84A5-4E8C-8020-8E4357692793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="2745" windowWidth="14400" windowHeight="10755" tabRatio="710" firstSheet="10" activeTab="13" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="710" firstSheet="1" activeTab="7" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="532">
   <si>
     <t>Codigo</t>
   </si>
@@ -1636,6 +1636,9 @@
   </si>
   <si>
     <t>Incapacitado</t>
+  </si>
+  <si>
+    <t>Dificultad en conectarse. Solo Datos. Le dí mi Whatsapp</t>
   </si>
 </sst>
 </file>
@@ -2403,6 +2406,9 @@
     <xf numFmtId="0" fontId="17" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2410,9 +2416,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6256,7 +6259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE5E425-7606-4CA0-91F7-19ECFA2BFA71}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -6274,26 +6277,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6916,11 +6919,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>32</v>
@@ -7032,26 +7035,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -7659,11 +7662,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="22">
         <f>COUNTA(D5:D36)</f>
         <v>31</v>
@@ -7772,26 +7775,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -8414,11 +8417,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>33</v>
@@ -8527,26 +8530,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -9187,11 +9190,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>34</v>
@@ -9282,7 +9285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A71EA1-F646-4F3E-830E-E1FBC54465F3}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -9299,26 +9302,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
@@ -9348,7 +9351,7 @@
       <c r="H4" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="52" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9951,11 +9954,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>32</v>
@@ -10064,26 +10067,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -10706,11 +10709,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>33</v>
@@ -10803,7 +10806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -10820,26 +10823,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -11693,11 +11696,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="54"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="55"/>
       <c r="D45" s="22">
         <f>COUNTA(D5:D44)</f>
         <v>40</v>
@@ -11816,26 +11819,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -12476,11 +12479,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>34</v>
@@ -12590,27 +12593,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -13418,11 +13421,11 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="54"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="22">
         <f>COUNTA(D5:D40)</f>
         <v>32</v>
@@ -13519,9 +13522,9 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C4" sqref="C4"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13537,26 +13540,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -14188,11 +14191,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>33</v>
@@ -14314,27 +14317,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -15089,11 +15092,11 @@
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>32</v>
@@ -15206,26 +15209,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -15875,11 +15878,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>31</v>
@@ -15970,8 +15973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E1DDBF-2BA4-4D02-93FC-EAD0C83F48A7}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15987,27 +15990,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -16660,7 +16663,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
@@ -16767,11 +16772,11 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>32</v>
@@ -16881,26 +16886,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -17541,11 +17546,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>34</v>
